--- a/NeqSimExcel/NeqSimExcel.xlsx
+++ b/NeqSimExcel/NeqSimExcel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\GITtest5\NeqSimExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-18720" yWindow="2715" windowWidth="12825" windowHeight="7305" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6255" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Startup" sheetId="18" r:id="rId1"/>
@@ -36,7 +41,7 @@
     <sheet name="ReadFluid" sheetId="31" r:id="rId27"/>
     <sheet name="wellstream" sheetId="32" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1181,7 +1186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1666,7 +1671,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8A3FA4ADB8327F840398B9C58ACE605A52B4D8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9557596019B87C9421C9861D9735F45E400699"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1680,34 +1685,34 @@
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="204D97F042C4FD24B3E2904A251AE0D274D8F2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D2E9956B12741147DD1A3DF1201F2754A13C1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3572"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX100.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A3BFE8641768C14A9C1B0B3101F1F9F2A1B61"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28C3B6D13208972429F293A32C2113DBFA4122"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4022"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1731,146 +1736,10 @@
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="291D019922DD0C241822A1892E3343DA966B02"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="277E7FC0E21783246212B58B2585CA2DA9FA62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="27563C9BF25B55242AF2B7762A82920C774BC2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1058"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="226259A8A2EDB22432E2A3D52F494200BC9342"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24048C03D29F45243022A2762251F47955D4B2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23A4DCD2324F1824D612809F27465A32D2B212"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1EAAA176C1AC7514C061868B15C05B5B35E0B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4868"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="11F29B8CD1F51914BFA19C4D1DC2D2C131B9A1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="11D1A8EB214D8514C5B1A3D31F8935F5091591"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1994EA02812BDD14C0B1A8FB1F4B95D2BB2B01"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1882,19 +1751,155 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="14D36455D191EC140E31BD561E321CC6D7B5F1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="184F374311CE991474D19A171449FEEFEF1BE1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2593"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1029F6A33115A9145641BB711EAF71403AF5C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2831"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19357786F1D686149141A459153C0DF2C0F0C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="99E80A20B9DC9A94CD39B2759AD8F94B050069"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8578E6734835BB84C2D886DE8DC04D61281918"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="73EBFB3597D7A37487A7B6FB76FEE3F98877F7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6CA29245266C5564D8069D6065AE9EF09F4DA6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="706FBF5B478C737424A79DC37BF150F4394617"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E5B9BBE8412A74438348D73466C7B25D11C64"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1904,14 +1909,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DB16E32A2195924F98291032DA20708D53D52"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="59D3618C85F26C547E558CA85FE14EE2FCF4E5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1938,14 +1943,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="59D3618C85F26C547E558CA85FE14EE2FCF4E5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DB16E32A2195924F98291032DA20708D53D52"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1955,160 +1960,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6CA29245266C5564D8069D6065AE9EF09F4DA6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="73EBFB3597D7A37487A7B6FB76FEE3F98877F7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8578E6734835BB84C2D886DE8DC04D61281918"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="99E80A20B9DC9A94CD39B2759AD8F94B050069"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19357786F1D686149141A459153C0DF2C0F0C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1029F6A33115A9145641BB711EAF71403AF5C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2831"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="184F374311CE991474D19A171449FEEFEF1BE1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2593"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6B08B159D6E53F648BE6AB476A6A21F0393306"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4180"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="14D36455D191EC140E31BD561E321CC6D7B5F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1994EA02812BDD14C0B1A8FB1F4B95D2BB2B01"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="11D1A8EB214D8514C5B1A3D31F8935F5091591"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2120,19 +1972,172 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D2E9956B12741147DD1A3DF1201F2754A13C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="11F29B8CD1F51914BFA19C4D1DC2D2C131B9A1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3572"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1EAAA176C1AC7514C061868B15C05B5B35E0B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4868"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23A4DCD2324F1824D612809F27465A32D2B212"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24048C03D29F45243022A2762251F47955D4B2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="226259A8A2EDB22432E2A3D52F494200BC9342"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="27563C9BF25B55242AF2B7762A82920C774BC2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1058"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39A3F493A352D5348B438D913B90F58B426BC3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4101"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="277E7FC0E21783246212B58B2585CA2DA9FA62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="291D019922DD0C241822A1892E3343DA966B02"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="204D97F042C4FD24B3E2904A251AE0D274D8F2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2159,14 +2164,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F4EE65745F4C554DCF5A3EE5437C15E8CD915"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="37857E2343FB4934B553A56F368F43A15B3AB3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3387"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2193,14 +2198,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="37857E2343FB4934B553A56F368F43A15B3AB3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F4EE65745F4C554DCF5A3EE5437C15E8CD915"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3387"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2210,13 +2215,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F5F3C9513E194340A93A9B531639868C9D723"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28549ED09299EE2466728BB6292BFE182B7EE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2244,13 +2249,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28549ED09299EE2466728BB6292BFE182B7EE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F5F3C9513E194340A93A9B531639868C9D723"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2261,36 +2266,53 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="536869FBA5AFBC541C05ACE056E3A30047B075"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2B53EE6D22AEC9248F22BC5F26474D9931F682"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4AC25C6F74961A44EB749A1D4048EBA4719A64"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33B5BBEA4343E7340D139D033749854DB8E273"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="18EADCCC4152391495318DDB1E807DCA1F9CC1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2307,36 +2329,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="18EADCCC4152391495318DDB1E807DCA1F9CC1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4AC25C6F74961A44EB749A1D4048EBA4719A64"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33B5BBEA4343E7340D139D033749854DB8E273"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2394,6 +2399,23 @@
 
 <file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="169131AA510FBC14CD51BA6C1A6AF0189B9F91"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1958"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -2409,36 +2431,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="169131AA510FBC14CD51BA6C1A6AF0189B9F91"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19683156C1FE8B14D2D1A5A11BCC31A74119F1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1958"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E6539469408FF44F5948BFE493D2EB5B2C1B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2465,6 +2470,23 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="201595F032C9E1246142AA9926B9A0F8314D62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="314817F8E3E88634747381F033271250FE3AE3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -2477,36 +2499,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="201595F032C9E1246142AA9926B9A0F8314D62"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E6539469408FF44F5948BFE493D2EB5B2C1B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19683156C1FE8B14D2D1A5A11BCC31A74119F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2530,34 +2535,34 @@
 
 <file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F64E731D4CE1B44245494D14C9683B0E34414"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5CCBA167151AE954A025B3DF5775A9B1B1F6A5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="31F1D43EB326C134DB73A8F838B2A3B7823803"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F8DAF2FC19C611407D190CE1A7C44D8C1DCF1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2581,51 +2586,51 @@
 
 <file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F8DAF2FC19C611407D190CE1A7C44D8C1DCF1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="31F1D43EB326C134DB73A8F838B2A3B7823803"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5CCBA167151AE954A025B3DF5775A9B1B1F6A5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F64E731D4CE1B44245494D14C9683B0E34414"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1277BE43C1DAC91410B1BA171ABFF711188D21"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F45B05E942B1144CB74A9F6400897F07D4DE4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1588"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2635,14 +2640,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2B53EE6D22AEC9248F22BC5F26474D9931F682"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="536869FBA5AFBC541C05ACE056E3A30047B075"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2666,22 +2671,39 @@
 
 <file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F45B05E942B1144CB74A9F6400897F07D4DE4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1277BE43C1DAC91410B1BA171ABFF711188D21"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1588"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C0DC5E324872344D014B8804DE43BB805D3F4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2698,12 +2720,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C0DC5E324872344D014B8804DE43BB805D3F4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1E2B4D4F31ADEF143A11B5221A20D102090DD1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2715,7 +2737,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2732,53 +2754,36 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1E2B4D4F31ADEF143A11B5221A20D102090DD1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="550AA336554E21545B259DBA51805BC9CD7805"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17A43E074162A2147ED1B3F91ADBE24223ADC1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="203310F762F6B524A0B2B83621DE236AA6F882"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="401F28DAB42B9544FFF4A9CC4B49A9EF053184"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2802,17 +2807,17 @@
 
 <file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="401F28DAB42B9544FFF4A9CC4B49A9EF053184"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="203310F762F6B524A0B2B83621DE236AA6F882"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2822,31 +2827,31 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39A3F493A352D5348B438D913B90F58B426BC3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6B08B159D6E53F648BE6AB476A6A21F0393306"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4101"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4180"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="550AA336554E21545B259DBA51805BC9CD7805"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17A43E074162A2147ED1B3F91ADBE24223ADC1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2873,7 +2878,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="16D4EADA81744B14F1A18BDE1B0C049C53E8A1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CFED2BE119AE914D4C1BB4319AF98EDDC6301"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2890,13 +2895,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39C16115E3ACE13464D3A99537BCE670F37923"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4233"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2907,7 +2912,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="430516B774B476446064AB84455C95B7BAC694"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2924,7 +2929,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="72271141F7F304743D97A5F1778C4D0587F767"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5C510AE1455D9F542EA587FD5E4EC14F5269B5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2958,7 +2963,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5C510AE1455D9F542EA587FD5E4EC14F5269B5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="72271141F7F304743D97A5F1778C4D0587F767"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2975,7 +2980,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="430516B774B476446064AB84455C95B7BAC694"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2992,13 +2997,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39C16115E3ACE13464D3A99537BCE670F37923"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4233"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -3009,14 +3014,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E5B9BBE8412A74438348D73466C7B25D11C64"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="706FBF5B478C737424A79DC37BF150F4394617"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3026,7 +3031,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CFED2BE119AE914D4C1BB4319AF98EDDC6301"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16D4EADA81744B14F1A18BDE1B0C049C53E8A1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3077,19 +3082,70 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="357B2A79332498347F03B20031F8F571CF0933"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6152E46166DF4B643BD68A046FDB6C8411D1B6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55503E7195534254BA65BF60556A460A274585"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2328"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E43028E041544444F74A6C94396E211329D04"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1633AAB911554C142501BF9817820FBE6FEDA1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3106,12 +3162,63 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="357B2A79332498347F03B20031F8F571CF0933"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="68033A1B56FD05648106B2226A576DF3F7F206"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8A3FA4ADB8327F840398B9C58ACE605A52B4D8"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1633AAB911554C142501BF9817820FBE6FEDA1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F62FABC01C0701401A183A71A107BBBBCD3B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3123,12 +3230,46 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E43028E041544444F74A6C94396E211329D04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FA0185362EB642483C28B0C2E919634E93C32"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3B7CE220A34E453492C39F323642F8E458B603"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C9459A6C4C41B44E214B19F489A41B8FDE2B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3140,41 +3281,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55503E7195534254BA65BF60556A460A274585"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2328"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6152E46166DF4B643BD68A046FDB6C8411D1B6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3191,109 +3298,58 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9557596019B87C9421C9861D9735F45E400699"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BD9DA6BF17560145B618E451B052818D43BF1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C9459A6C4C41B44E214B19F489A41B8FDE2B4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2954B6DE02D8C324C5629F1E2D3DCBAB99B1C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3B7CE220A34E453492C39F323642F8E458B603"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E96453F74631944EB14B41B4161216A52F4A4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FA0185362EB642483C28B0C2E919634E93C32"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F62FABC01C0701401A183A71A107BBBBCD3B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="68033A1B56FD05648106B2226A576DF3F7F206"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3310,70 +3366,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX99.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E96453F74631944EB14B41B4161216A52F4A4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A3BFE8641768C14A9C1B0B3101F1F9F2A1B61"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4022"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2954B6DE02D8C324C5629F1E2D3DCBAB99B1C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BD9DA6BF17560145B618E451B052818D43BF1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX99.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28C3B6D13208972429F293A32C2113DBFA4122"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3402,11 +3407,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s66561"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3414,6 +3422,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3443,11 +3469,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s66562"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3455,6 +3484,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3484,11 +3531,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s66563"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3496,6 +3546,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3525,11 +3593,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s66564"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3537,6 +3608,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3566,11 +3655,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s66565"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3578,6 +3670,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3607,11 +3717,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s66566"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3619,6 +3732,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3648,11 +3779,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s66567"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3660,6 +3794,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3689,11 +3841,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s66568"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3701,6 +3856,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3730,11 +3903,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s66569"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3742,6 +3918,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3776,11 +3970,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s37889"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000001940000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3788,6 +3985,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3817,11 +4032,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s37890"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002940000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3829,6 +4047,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3863,11 +4099,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001200000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3875,6 +4114,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3904,11 +4161,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s8194"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002200000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3916,6 +4176,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3945,11 +4223,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s8195"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003200000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3957,6 +4238,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3986,11 +4285,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s8196"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004200000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3998,6 +4300,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4032,11 +4352,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000001100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4044,6 +4367,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4078,11 +4419,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s48129"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001BC0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4090,6 +4434,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4119,11 +4481,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s48130"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002BC0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4131,6 +4496,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4160,11 +4543,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s48131"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003BC0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4172,6 +4558,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4201,11 +4605,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s48132"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004BC0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4213,6 +4620,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4242,11 +4667,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s48133"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005BC0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4254,6 +4682,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4288,11 +4734,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s44033"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001AC0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4300,6 +4749,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4329,11 +4796,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s44035"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003AC0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4341,6 +4811,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4370,11 +4858,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s44036"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004AC0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4382,6 +4873,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4416,11 +4925,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9219"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4428,6 +4940,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4457,11 +4987,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9220"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4469,6 +5002,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4503,11 +5054,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s10241"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000001280000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4515,6 +5069,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4544,11 +5116,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s10242"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002280000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4556,6 +5131,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4590,11 +5183,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s82945"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000001440100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4602,6 +5198,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4631,11 +5245,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s82946"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002440100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4643,6 +5260,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4672,11 +5307,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s82947"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003440100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4684,6 +5322,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4713,11 +5369,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s82948"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004440100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4725,6 +5384,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4754,11 +5431,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s82949"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005440100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4766,6 +5446,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4800,11 +5498,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s65537"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000001000100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4812,6 +5513,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4846,11 +5565,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s84993"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000014C0100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4858,6 +5580,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4887,11 +5627,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s84995"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000034C0100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4899,6 +5642,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4928,11 +5689,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s84996"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000044C0100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4940,6 +5704,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4969,11 +5751,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s84997"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000054C0100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4981,6 +5766,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5010,11 +5813,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s84998"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000064C0100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5022,6 +5828,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5051,11 +5875,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s84999"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000074C0100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5063,6 +5890,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5092,11 +5937,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s85001"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000094C0100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5104,6 +5952,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5133,11 +5999,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s85002"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000A4C0100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5145,6 +6014,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5174,11 +6061,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s85003"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000B4C0100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5186,6 +6076,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5220,11 +6128,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5232,6 +6143,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5261,11 +6190,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5273,6 +6205,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5302,11 +6252,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5314,6 +6267,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5343,11 +6314,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5355,6 +6329,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5384,11 +6376,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5396,6 +6391,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5425,11 +6438,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5437,6 +6453,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5466,11 +6500,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5478,6 +6515,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5507,11 +6562,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5519,6 +6577,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5548,11 +6624,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5560,6 +6639,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5589,11 +6686,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5601,6 +6701,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5630,11 +6748,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5642,6 +6763,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5671,11 +6810,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5683,6 +6825,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5712,11 +6872,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5724,6 +6887,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5753,11 +6934,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5765,6 +6949,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5794,11 +6996,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5806,6 +7011,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5835,11 +7058,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5847,6 +7073,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5876,11 +7120,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5888,6 +7135,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5917,11 +7182,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5929,6 +7197,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5958,11 +7244,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5970,6 +7259,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5999,11 +7306,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6011,6 +7321,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6040,11 +7368,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6052,6 +7383,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6081,11 +7430,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6093,6 +7445,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6122,11 +7492,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6134,6 +7507,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6168,11 +7559,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s88065"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000001580100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6180,6 +7574,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6214,11 +7626,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s89089"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-0000015C0100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6226,6 +7641,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6260,11 +7693,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s92161"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000001680100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6272,6 +7708,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6301,11 +7755,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s92162"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002680100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6313,6 +7770,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6342,11 +7817,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s92163"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000003680100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6354,6 +7832,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6383,11 +7879,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s92164"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000004680100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6395,6 +7894,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6424,11 +7941,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s92165"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000005680100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6436,6 +7956,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6461,7 +7999,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6509,11 +8047,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s92166"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000006680100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6521,6 +8062,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6555,11 +8114,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s96257"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000001780100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6567,6 +8129,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6596,11 +8176,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s96258"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002780100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6608,6 +8191,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6637,11 +8238,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s96259"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000003780100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6649,6 +8253,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6678,11 +8300,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s96260"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000004780100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6690,6 +8315,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6719,11 +8362,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s96261"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000005780100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6731,6 +8377,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6760,11 +8424,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s96262"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000006780100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6772,6 +8439,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6797,7 +8482,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6855,11 +8540,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s99329"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000001840100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6867,6 +8555,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6896,11 +8602,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s99330"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002840100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6908,6 +8617,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6937,11 +8664,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s99332"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000004840100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6949,6 +8679,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6978,11 +8726,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s99333"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000005840100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6990,6 +8741,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7024,11 +8793,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s126977"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000001F00100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7036,6 +8808,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7065,11 +8855,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s126978"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000002F00100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7077,6 +8870,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7111,11 +8922,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s130049"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000001FC0100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7123,6 +8937,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7157,11 +8989,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s102401"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001900100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7169,6 +9004,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7203,11 +9056,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s18435"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003480000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7215,6 +9071,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7244,11 +9118,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s18436"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004480000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7256,6 +9133,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7285,11 +9180,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s18437"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005480000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7297,6 +9195,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7331,11 +9247,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s25601"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001640000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7343,6 +9262,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7372,11 +9309,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s25602"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002640000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7384,6 +9324,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7413,11 +9371,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s25603"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003640000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7425,6 +9386,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7459,11 +9438,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s53249"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001D00000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7471,6 +9453,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7500,11 +9500,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s53250"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002D00000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7512,6 +9515,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7541,11 +9562,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s53251"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003D00000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7553,6 +9577,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7582,11 +9624,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s53252"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004D00000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7594,6 +9639,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7628,11 +9691,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000010C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7640,6 +9706,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7674,11 +9758,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7686,6 +9773,32 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured val="1"/>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7720,11 +9833,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s32769"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000001800000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7732,6 +9848,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7785,7 +9919,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7818,9 +9952,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7853,6 +10004,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8262,43 +10430,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66568" r:id="rId5" name="_ActiveXWrapper8">
+        <control shapeId="66569" r:id="rId5" name="_ActiveXWrapper9">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="66568" r:id="rId5" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="66567" r:id="rId7" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1962150</xdr:colOff>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -8307,49 +10450,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66567" r:id="rId7" name="_ActiveXWrapper7"/>
+        <control shapeId="66569" r:id="rId5" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66566" r:id="rId9" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+        <control shapeId="66564" r:id="rId7" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1866900</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66566" r:id="rId9" name="_ActiveXWrapper6"/>
+        <control shapeId="66564" r:id="rId7" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66565" r:id="rId11" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+        <control shapeId="66563" r:id="rId9" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>2057400</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:colOff>1838325</xdr:colOff>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8357,7 +10500,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66565" r:id="rId11" name="_ActiveXWrapper5"/>
+        <control shapeId="66563" r:id="rId9" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="66562" r:id="rId11" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1943100</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="66562" r:id="rId11" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8387,44 +10555,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66562" r:id="rId15" name="_ActiveXWrapper2">
+        <control shapeId="66565" r:id="rId15" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1943100</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="66562" r:id="rId15" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="66563" r:id="rId17" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1838325</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:colOff>2057400</xdr:colOff>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8432,48 +10575,48 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66563" r:id="rId17" name="_ActiveXWrapper3"/>
+        <control shapeId="66565" r:id="rId15" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66564" r:id="rId19" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+        <control shapeId="66566" r:id="rId17" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>1866900</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66564" r:id="rId19" name="_ActiveXWrapper4"/>
+        <control shapeId="66566" r:id="rId17" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66569" r:id="rId21" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
+        <control shapeId="66567" r:id="rId19" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1962150</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -8482,7 +10625,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66569" r:id="rId21" name="_ActiveXWrapper9"/>
+        <control shapeId="66567" r:id="rId19" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="66568" r:id="rId21" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="66568" r:id="rId21" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8544,8 +10712,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37890" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="37889" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="37889" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="37890" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -8564,32 +10757,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37890" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="37889" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="37889" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="37890" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8681,8 +10849,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8195" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8195" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -8701,82 +10944,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8196" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8193" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9105,52 +11273,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48132" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="48133" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1038225</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48132" r:id="rId4" name="_ActiveXWrapper4"/>
+        <control shapeId="48133" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48131" r:id="rId6" name="_ActiveXWrapper3">
+        <control shapeId="48129" r:id="rId6" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48131" r:id="rId6" name="_ActiveXWrapper3"/>
+        <control shapeId="48129" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9180,52 +11348,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48129" r:id="rId10" name="_ActiveXWrapper1">
+        <control shapeId="48131" r:id="rId10" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48129" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="48131" r:id="rId10" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48133" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="48132" r:id="rId12" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48133" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="48132" r:id="rId12" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9307,27 +11475,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="44036" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="44036" r:id="rId4" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9357,27 +11525,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44036" r:id="rId8" name="_ActiveXWrapper3">
+        <control shapeId="44033" r:id="rId8" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44036" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="44033" r:id="rId8" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9435,8 +11603,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9219" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="9220" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>933450</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9220" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9219" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -9455,32 +11648,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9219" r:id="rId4" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9220" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>933450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9220" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="9219" r:id="rId6" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9569,8 +11737,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -9589,32 +11782,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10242" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10241" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9626,8 +11794,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9761,52 +11929,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82945" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="82949" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82945" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="82949" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82946" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="82948" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82946" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="82948" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9836,52 +12004,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82948" r:id="rId9" name="_ActiveXWrapper4">
+        <control shapeId="82946" r:id="rId9" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82948" r:id="rId9" name="_ActiveXWrapper4"/>
+        <control shapeId="82946" r:id="rId9" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82949" r:id="rId11" name="_ActiveXWrapper5">
+        <control shapeId="82945" r:id="rId11" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82949" r:id="rId11" name="_ActiveXWrapper5"/>
+        <control shapeId="82945" r:id="rId11" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10026,7 +12194,207 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="85003" r:id="rId4" name="_ActiveXWrapper7">
+        <control shapeId="84993" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1524000</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84993" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84995" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1533525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84995" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84996" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84996" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84997" r:id="rId9" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84997" r:id="rId9" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84998" r:id="rId10" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84998" r:id="rId10" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84999" r:id="rId11" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84999" r:id="rId11" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85001" r:id="rId12" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85001" r:id="rId12" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85002" r:id="rId13" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85002" r:id="rId13" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85003" r:id="rId14" name="_ActiveXWrapper7">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -10046,207 +12414,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="85003" r:id="rId4" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85002" r:id="rId6" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85002" r:id="rId6" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85001" r:id="rId7" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85001" r:id="rId7" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84999" r:id="rId8" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84999" r:id="rId8" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84998" r:id="rId9" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84998" r:id="rId9" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84997" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84997" r:id="rId10" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84996" r:id="rId11" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84996" r:id="rId11" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84995" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1533525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84995" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84993" r:id="rId14" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1524000</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84993" r:id="rId14" name="_ActiveXWrapper1"/>
+        <control shapeId="85003" r:id="rId14" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10258,7 +12426,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
@@ -11880,18 +14048,68 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId4" name="_ActiveXWrapper23">
+        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper27">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId6" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId6" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId8" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -11900,23 +14118,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId4" name="_ActiveXWrapper23"/>
+        <control shapeId="1037" r:id="rId8" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId6" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1036" r:id="rId10" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -11925,74 +14143,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId6" name="_ActiveXWrapper22"/>
+        <control shapeId="1036" r:id="rId10" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId8" name="_ActiveXWrapper21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId8" name="_ActiveXWrapper21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId10" name="_ActiveXWrapper20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId10" name="_ActiveXWrapper20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId12" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
@@ -12000,157 +14168,157 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId12" name="_ActiveXWrapper19"/>
+        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId14" name="_ActiveXWrapper18">
+        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8">
           <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId14" name="_ActiveXWrapper18"/>
+        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId16" name="_ActiveXWrapper17">
+        <control shapeId="1033" r:id="rId16" name="_ActiveXWrapper7">
           <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId16" name="_ActiveXWrapper17"/>
+        <control shapeId="1033" r:id="rId16" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId18" name="_ActiveXWrapper16">
+        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper13">
           <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId18" name="_ActiveXWrapper16"/>
+        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId20" name="_ActiveXWrapper15">
+        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>762000</xdr:colOff>
+                <xdr:row>110</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId20" name="_ActiveXWrapper15"/>
+        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper14">
+        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper14"/>
+        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId24" name="_ActiveXWrapper1">
+        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId24" name="_ActiveXWrapper1"/>
+        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12180,169 +14348,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId28" name="_ActiveXWrapper4">
+        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId28" name="_ActiveXWrapper4"/>
+        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId30" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId30" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId32" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>762000</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId32" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId34" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId34" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId36" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId36" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId38" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId38" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId40" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
@@ -12350,23 +14393,198 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId40" name="_ActiveXWrapper9"/>
+        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId42" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
+        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId33" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId34">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId33" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId35" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId35" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId37" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId38">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId37" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId39" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId39" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId41" name="_ActiveXWrapper20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId42">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId41" name="_ActiveXWrapper20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId43" name="_ActiveXWrapper21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId44">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId43" name="_ActiveXWrapper21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId45" name="_ActiveXWrapper22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -12375,23 +14593,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId42" name="_ActiveXWrapper10"/>
+        <control shapeId="1050" r:id="rId45" name="_ActiveXWrapper22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId44" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
+        <control shapeId="1051" r:id="rId47" name="_ActiveXWrapper23">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -12400,57 +14618,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId44" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId46" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId46" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId47" name="_ActiveXWrapper27">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId47" name="_ActiveXWrapper27"/>
+        <control shapeId="1051" r:id="rId47" name="_ActiveXWrapper23"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12957,8 +15125,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="92163" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="92166" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92166" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92165" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92165" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92164" r:id="rId8" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92164" r:id="rId8" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92161" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92161" r:id="rId10" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92162" r:id="rId12" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92162" r:id="rId12" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92163" r:id="rId14" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -12977,132 +15270,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="92163" r:id="rId4" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92162" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92162" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92161" r:id="rId8" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92161" r:id="rId8" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92164" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92164" r:id="rId10" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92165" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92165" r:id="rId12" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92166" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92166" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="92163" r:id="rId14" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13407,8 +15575,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="96261" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="96262" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96262" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96257" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96257" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96258" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96258" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96259" r:id="rId10" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96259" r:id="rId10" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96260" r:id="rId12" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96260" r:id="rId12" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96261" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -13427,132 +15720,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="96261" r:id="rId4" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96260" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96260" r:id="rId6" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96259" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96259" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96258" r:id="rId9" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96258" r:id="rId9" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96257" r:id="rId11" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96257" r:id="rId11" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96262" r:id="rId13" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96262" r:id="rId13" name="_ActiveXWrapper6"/>
+        <control shapeId="96261" r:id="rId14" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13641,8 +15809,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="99333" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="99329" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99329" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99330" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99330" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99332" r:id="rId7" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99332" r:id="rId7" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99333" r:id="rId8" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -13661,82 +15904,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="99333" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99332" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99332" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99330" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99330" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99329" r:id="rId9" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99329" r:id="rId9" name="_ActiveXWrapper1"/>
+        <control shapeId="99333" r:id="rId8" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13781,8 +15949,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="126977" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="126977" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="126978" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -13801,32 +15994,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="126977" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="126978" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15223,27 +17391,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="18437" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="18435" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="18437" r:id="rId4" name="_ActiveXWrapper3"/>
+        <control shapeId="18435" r:id="rId4" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -15273,27 +17441,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="18435" r:id="rId8" name="_ActiveXWrapper2">
+        <control shapeId="18437" r:id="rId8" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="18435" r:id="rId8" name="_ActiveXWrapper2"/>
+        <control shapeId="18437" r:id="rId8" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15354,27 +17522,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="25603" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="25602" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1390650</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>1400175</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="25603" r:id="rId4" name="_ActiveXWrapper3"/>
+        <control shapeId="25602" r:id="rId4" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -15404,27 +17572,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="25602" r:id="rId8" name="_ActiveXWrapper2">
+        <control shapeId="25603" r:id="rId8" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1400175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>1390650</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="25602" r:id="rId8" name="_ActiveXWrapper2"/>
+        <control shapeId="25603" r:id="rId8" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15489,8 +17657,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="53252" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="53251" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53251" r:id="rId4" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53249" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53249" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53250" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1400175</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53250" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53252" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -15509,82 +17752,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="53252" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53250" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1400175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53250" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53249" r:id="rId8" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53249" r:id="rId8" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53251" r:id="rId10" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53251" r:id="rId10" name="_ActiveXWrapper3"/>
+        <control shapeId="53252" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/NeqSimExcel/NeqSimExcel.xlsx
+++ b/NeqSimExcel/NeqSimExcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6255" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="6345" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Startup" sheetId="18" r:id="rId1"/>
@@ -1671,7 +1671,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9557596019B87C9421C9861D9735F45E400699"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8A3FA4ADB8327F840398B9C58ACE605A52B4D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1685,34 +1685,34 @@
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D2E9956B12741147DD1A3DF1201F2754A13C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="204D97F042C4FD24B3E2904A251AE0D274D8F2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3572"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX100.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28C3B6D13208972429F293A32C2113DBFA4122"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A3BFE8641768C14A9C1B0B3101F1F9F2A1B61"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4022"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1736,10 +1736,146 @@
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="291D019922DD0C241822A1892E3343DA966B02"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="277E7FC0E21783246212B58B2585CA2DA9FA62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="27563C9BF25B55242AF2B7762A82920C774BC2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1058"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="226259A8A2EDB22432E2A3D52F494200BC9342"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24048C03D29F45243022A2762251F47955D4B2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23A4DCD2324F1824D612809F27465A32D2B212"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1EAAA176C1AC7514C061868B15C05B5B35E0B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4868"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="11F29B8CD1F51914BFA19C4D1DC2D2C131B9A1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1994EA02812BDD14C0B1A8FB1F4B95D2BB2B01"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="11D1A8EB214D8514C5B1A3D31F8935F5091591"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1751,155 +1887,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="14D36455D191EC140E31BD561E321CC6D7B5F1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="706FBF5B478C737424A79DC37BF150F4394617"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="184F374311CE991474D19A171449FEEFEF1BE1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2593"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1029F6A33115A9145641BB711EAF71403AF5C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2831"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19357786F1D686149141A459153C0DF2C0F0C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="99E80A20B9DC9A94CD39B2759AD8F94B050069"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8578E6734835BB84C2D886DE8DC04D61281918"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="73EBFB3597D7A37487A7B6FB76FEE3F98877F7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6CA29245266C5564D8069D6065AE9EF09F4DA6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E5B9BBE8412A74438348D73466C7B25D11C64"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1909,14 +1909,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="59D3618C85F26C547E558CA85FE14EE2FCF4E5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DB16E32A2195924F98291032DA20708D53D52"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1943,14 +1943,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DB16E32A2195924F98291032DA20708D53D52"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="59D3618C85F26C547E558CA85FE14EE2FCF4E5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1960,7 +1960,160 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="11D1A8EB214D8514C5B1A3D31F8935F5091591"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6CA29245266C5564D8069D6065AE9EF09F4DA6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="73EBFB3597D7A37487A7B6FB76FEE3F98877F7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8578E6734835BB84C2D886DE8DC04D61281918"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="99E80A20B9DC9A94CD39B2759AD8F94B050069"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19357786F1D686149141A459153C0DF2C0F0C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1029F6A33115A9145641BB711EAF71403AF5C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2831"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="184F374311CE991474D19A171449FEEFEF1BE1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2593"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6B08B159D6E53F648BE6AB476A6A21F0393306"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4180"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="14D36455D191EC140E31BD561E321CC6D7B5F1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1994EA02812BDD14C0B1A8FB1F4B95D2BB2B01"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1972,172 +2125,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="11F29B8CD1F51914BFA19C4D1DC2D2C131B9A1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D2E9956B12741147DD1A3DF1201F2754A13C1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3572"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1EAAA176C1AC7514C061868B15C05B5B35E0B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4868"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23A4DCD2324F1824D612809F27465A32D2B212"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24048C03D29F45243022A2762251F47955D4B2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="226259A8A2EDB22432E2A3D52F494200BC9342"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="27563C9BF25B55242AF2B7762A82920C774BC2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1058"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39A3F493A352D5348B438D913B90F58B426BC3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4101"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="277E7FC0E21783246212B58B2585CA2DA9FA62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="291D019922DD0C241822A1892E3343DA966B02"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="204D97F042C4FD24B3E2904A251AE0D274D8F2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2164,14 +2164,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="37857E2343FB4934B553A56F368F43A15B3AB3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F4EE65745F4C554DCF5A3EE5437C15E8CD915"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3387"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2198,14 +2198,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F4EE65745F4C554DCF5A3EE5437C15E8CD915"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="37857E2343FB4934B553A56F368F43A15B3AB3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3387"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2215,13 +2215,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28549ED09299EE2466728BB6292BFE182B7EE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F5F3C9513E194340A93A9B531639868C9D723"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2249,13 +2249,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F5F3C9513E194340A93A9B531639868C9D723"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28549ED09299EE2466728BB6292BFE182B7EE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2266,36 +2266,53 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2B53EE6D22AEC9248F22BC5F26474D9931F682"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="536869FBA5AFBC541C05ACE056E3A30047B075"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33B5BBEA4343E7340D139D033749854DB8E273"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4AC25C6F74961A44EB749A1D4048EBA4719A64"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23F7A02EB2EC72247C62B9D8298BDECF005962"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2312,36 +2329,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23F7A02EB2EC72247C62B9D8298BDECF005962"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33B5BBEA4343E7340D139D033749854DB8E273"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4AC25C6F74961A44EB749A1D4048EBA4719A64"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2399,6 +2399,23 @@
 
 <file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="273BB633F2A10E2448A2B2692559D6AB9253D2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -2414,36 +2431,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="273BB633F2A10E2448A2B2692559D6AB9253D2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E6539469408FF44F5948BFE493D2EB5B2C1B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19683156C1FE8B14D2D1A5A11BCC31A74119F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2470,6 +2470,23 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="314817F8E3E88634747381F033271250FE3AE3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="201595F032C9E1246142AA9926B9A0F8314D62"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -2482,36 +2499,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="314817F8E3E88634747381F033271250FE3AE3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19683156C1FE8B14D2D1A5A11BCC31A74119F1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E6539469408FF44F5948BFE493D2EB5B2C1B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2535,34 +2535,34 @@
 
 <file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5CCBA167151AE954A025B3DF5775A9B1B1F6A5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F64E731D4CE1B44245494D14C9683B0E34414"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F8DAF2FC19C611407D190CE1A7C44D8C1DCF1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="31F1D43EB326C134DB73A8F838B2A3B7823803"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2586,51 +2586,51 @@
 
 <file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="31F1D43EB326C134DB73A8F838B2A3B7823803"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F8DAF2FC19C611407D190CE1A7C44D8C1DCF1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F64E731D4CE1B44245494D14C9683B0E34414"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5CCBA167151AE954A025B3DF5775A9B1B1F6A5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F45B05E942B1144CB74A9F6400897F07D4DE4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1277BE43C1DAC91410B1BA171ABFF711188D21"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1588"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2640,14 +2640,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="536869FBA5AFBC541C05ACE056E3A30047B075"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2B53EE6D22AEC9248F22BC5F26474D9931F682"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2671,22 +2671,39 @@
 
 <file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1277BE43C1DAC91410B1BA171ABFF711188D21"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F45B05E942B1144CB74A9F6400897F07D4DE4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1588"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33305FF99385AA345543A7693D4A13F145DD43"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3625"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2703,24 +2720,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33305FF99385AA345543A7693D4A13F145DD43"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DE31B0B627102248E12810C21BF99F709A3D2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3625"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2737,53 +2754,36 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DE31B0B627102248E12810C21BF99F709A3D2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17A43E074162A2147ED1B3F91ADBE24223ADC1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="550AA336554E21545B259DBA51805BC9CD7805"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="401F28DAB42B9544FFF4A9CC4B49A9EF053184"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="203310F762F6B524A0B2B83621DE236AA6F882"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2807,17 +2807,17 @@
 
 <file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="203310F762F6B524A0B2B83621DE236AA6F882"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="401F28DAB42B9544FFF4A9CC4B49A9EF053184"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2827,31 +2827,31 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6B08B159D6E53F648BE6AB476A6A21F0393306"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39A3F493A352D5348B438D913B90F58B426BC3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4180"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4101"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17A43E074162A2147ED1B3F91ADBE24223ADC1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="550AA336554E21545B259DBA51805BC9CD7805"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2878,7 +2878,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CFED2BE119AE914D4C1BB4319AF98EDDC6301"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16D4EADA81744B14F1A18BDE1B0C049C53E8A1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2895,13 +2895,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39C16115E3ACE13464D3A99537BCE670F37923"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4233"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2912,7 +2912,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="430516B774B476446064AB84455C95B7BAC694"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2929,7 +2929,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5C510AE1455D9F542EA587FD5E4EC14F5269B5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="72271141F7F304743D97A5F1778C4D0587F767"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2963,7 +2963,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="72271141F7F304743D97A5F1778C4D0587F767"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5C510AE1455D9F542EA587FD5E4EC14F5269B5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2980,7 +2980,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="430516B774B476446064AB84455C95B7BAC694"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2997,13 +2997,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39C16115E3ACE13464D3A99537BCE670F37923"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4233"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -3014,14 +3014,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="706FBF5B478C737424A79DC37BF150F4394617"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E5B9BBE8412A74438348D73466C7B25D11C64"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3031,7 +3031,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="16D4EADA81744B14F1A18BDE1B0C049C53E8A1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CFED2BE119AE914D4C1BB4319AF98EDDC6301"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3082,19 +3082,70 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6152E46166DF4B643BD68A046FDB6C8411D1B6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="357B2A79332498347F03B20031F8F571CF0933"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="236327E5329C47245D52A7AD2D6C7DD86F01C2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1633AAB911554C142501BF9817820FBE6FEDA1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E43028E041544444F74A6C94396E211329D04"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3111,12 +3162,63 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6152E46166DF4B643BD68A046FDB6C8411D1B6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="53A1C41F059FDB54CBA58BFE5A4C386E5C5075"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9557596019B87C9421C9861D9735F45E400699"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E43028E041544444F74A6C94396E211329D04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C9459A6C4C41B44E214B19F489A41B8FDE2B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3128,12 +3230,46 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3B7CE220A34E453492C39F323642F8E458B603"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FA0185362EB642483C28B0C2E919634E93C32"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1633AAB911554C142501BF9817820FBE6FEDA1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F62FABC01C0701401A183A71A107BBBBCD3B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3145,41 +3281,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="236327E5329C47245D52A7AD2D6C7DD86F01C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="357B2A79332498347F03B20031F8F571CF0933"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3196,109 +3298,58 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8A3FA4ADB8327F840398B9C58ACE605A52B4D8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5444E502D5E8AC544475A18758CA96B2F793D5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F62FABC01C0701401A183A71A107BBBBCD3B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E96453F74631944EB14B41B4161216A52F4A4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FA0185362EB642483C28B0C2E919634E93C32"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2954B6DE02D8C324C5629F1E2D3DCBAB99B1C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3B7CE220A34E453492C39F323642F8E458B603"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C9459A6C4C41B44E214B19F489A41B8FDE2B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="53A1C41F059FDB54CBA58BFE5A4C386E5C5075"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3315,70 +3366,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX99.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2954B6DE02D8C324C5629F1E2D3DCBAB99B1C2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28C3B6D13208972429F293A32C2113DBFA4122"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E96453F74631944EB14B41B4161216A52F4A4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5444E502D5E8AC544475A18758CA96B2F793D5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX99.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A3BFE8641768C14A9C1B0B3101F1F9F2A1B61"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4022"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -10430,18 +10430,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66569" r:id="rId5" name="_ActiveXWrapper9">
+        <control shapeId="66568" r:id="rId5" name="_ActiveXWrapper8">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="66568" r:id="rId5" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="66567" r:id="rId7" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1962150</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10450,49 +10475,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66569" r:id="rId5" name="_ActiveXWrapper9"/>
+        <control shapeId="66567" r:id="rId7" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66564" r:id="rId7" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+        <control shapeId="66566" r:id="rId9" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>1866900</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66564" r:id="rId7" name="_ActiveXWrapper4"/>
+        <control shapeId="66566" r:id="rId9" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66563" r:id="rId9" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+        <control shapeId="66565" r:id="rId11" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1838325</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:colOff>2057400</xdr:colOff>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10500,32 +10525,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66563" r:id="rId9" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="66562" r:id="rId11" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1943100</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="66562" r:id="rId11" name="_ActiveXWrapper2"/>
+        <control shapeId="66565" r:id="rId11" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10555,19 +10555,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66565" r:id="rId15" name="_ActiveXWrapper5">
+        <control shapeId="66562" r:id="rId15" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>2057400</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:colOff>1943100</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="66562" r:id="rId15" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="66563" r:id="rId17" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1838325</xdr:colOff>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10575,48 +10600,48 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66565" r:id="rId15" name="_ActiveXWrapper5"/>
+        <control shapeId="66563" r:id="rId17" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66566" r:id="rId17" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+        <control shapeId="66564" r:id="rId19" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1866900</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66566" r:id="rId17" name="_ActiveXWrapper6"/>
+        <control shapeId="66564" r:id="rId19" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66567" r:id="rId19" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+        <control shapeId="66569" r:id="rId21" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1962150</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10625,32 +10650,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66567" r:id="rId19" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="66568" r:id="rId21" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="66568" r:id="rId21" name="_ActiveXWrapper8"/>
+        <control shapeId="66569" r:id="rId21" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10712,8 +10712,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37889" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="37890" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="37890" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="37889" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -10732,32 +10757,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37889" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="37890" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="37890" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="37889" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10849,8 +10849,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="8196" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8196" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8195" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8195" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8194" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8194" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8193" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -10869,82 +10944,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="8193" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11273,52 +11273,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48133" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="48132" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48133" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="48132" r:id="rId4" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48129" r:id="rId6" name="_ActiveXWrapper1">
+        <control shapeId="48131" r:id="rId6" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48129" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="48131" r:id="rId6" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11348,52 +11348,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48131" r:id="rId10" name="_ActiveXWrapper3">
+        <control shapeId="48129" r:id="rId10" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48131" r:id="rId10" name="_ActiveXWrapper3"/>
+        <control shapeId="48129" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48132" r:id="rId12" name="_ActiveXWrapper4">
+        <control shapeId="48133" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1038225</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48132" r:id="rId12" name="_ActiveXWrapper4"/>
+        <control shapeId="48133" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11475,27 +11475,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44036" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="44033" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44036" r:id="rId4" name="_ActiveXWrapper3"/>
+        <control shapeId="44033" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11525,27 +11525,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId8" name="_ActiveXWrapper1">
+        <control shapeId="44036" r:id="rId8" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId8" name="_ActiveXWrapper1"/>
+        <control shapeId="44036" r:id="rId8" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11603,8 +11603,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9220" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="9219" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9219" r:id="rId4" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9220" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -11623,32 +11648,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9220" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9219" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9219" r:id="rId6" name="_ActiveXWrapper3"/>
+        <control shapeId="9220" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11737,8 +11737,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="10242" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10242" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -11757,32 +11782,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="10241" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11794,7 +11794,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -11929,52 +11929,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82949" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="82945" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82949" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="82945" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82948" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="82946" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82948" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="82946" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12004,52 +12004,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82946" r:id="rId9" name="_ActiveXWrapper2">
+        <control shapeId="82948" r:id="rId9" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82946" r:id="rId9" name="_ActiveXWrapper2"/>
+        <control shapeId="82948" r:id="rId9" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82945" r:id="rId11" name="_ActiveXWrapper1">
+        <control shapeId="82949" r:id="rId11" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82945" r:id="rId11" name="_ActiveXWrapper1"/>
+        <control shapeId="82949" r:id="rId11" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12194,7 +12194,207 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="84993" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="85003" r:id="rId4" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1524000</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85003" r:id="rId4" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85002" r:id="rId6" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85002" r:id="rId6" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85001" r:id="rId7" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85001" r:id="rId7" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84999" r:id="rId8" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84999" r:id="rId8" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84998" r:id="rId9" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84998" r:id="rId9" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84997" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84997" r:id="rId10" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84996" r:id="rId11" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84996" r:id="rId11" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84995" r:id="rId12" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1533525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84995" r:id="rId12" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84993" r:id="rId14" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -12214,207 +12414,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="84993" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84995" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1533525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84995" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84996" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84996" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84997" r:id="rId9" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84997" r:id="rId9" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84998" r:id="rId10" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84998" r:id="rId10" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84999" r:id="rId11" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84999" r:id="rId11" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85001" r:id="rId12" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85001" r:id="rId12" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85002" r:id="rId13" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85002" r:id="rId13" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85003" r:id="rId14" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1524000</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85003" r:id="rId14" name="_ActiveXWrapper7"/>
+        <control shapeId="84993" r:id="rId14" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12426,8 +12426,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14048,68 +14048,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper27">
+        <control shapeId="1051" r:id="rId4" name="_ActiveXWrapper23">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId6" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId6" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId8" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -14118,23 +14068,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId8" name="_ActiveXWrapper11"/>
+        <control shapeId="1051" r:id="rId4" name="_ActiveXWrapper23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId10" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="1050" r:id="rId6" name="_ActiveXWrapper22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -14143,24 +14093,74 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId10" name="_ActiveXWrapper10"/>
+        <control shapeId="1050" r:id="rId6" name="_ActiveXWrapper22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper9">
+        <control shapeId="1049" r:id="rId8" name="_ActiveXWrapper21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId8" name="_ActiveXWrapper21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId10" name="_ActiveXWrapper20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId10" name="_ActiveXWrapper20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId12" name="_ActiveXWrapper19">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
@@ -14168,157 +14168,157 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper9"/>
+        <control shapeId="1047" r:id="rId12" name="_ActiveXWrapper19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8">
+        <control shapeId="1045" r:id="rId14" name="_ActiveXWrapper18">
           <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8"/>
+        <control shapeId="1045" r:id="rId14" name="_ActiveXWrapper18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId16" name="_ActiveXWrapper7">
+        <control shapeId="1044" r:id="rId16" name="_ActiveXWrapper17">
           <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId16" name="_ActiveXWrapper7"/>
+        <control shapeId="1044" r:id="rId16" name="_ActiveXWrapper17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper13">
+        <control shapeId="1042" r:id="rId18" name="_ActiveXWrapper16">
           <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper13"/>
+        <control shapeId="1042" r:id="rId18" name="_ActiveXWrapper16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6">
+        <control shapeId="1041" r:id="rId20" name="_ActiveXWrapper15">
           <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>762000</xdr:colOff>
-                <xdr:row>110</xdr:row>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6"/>
+        <control shapeId="1041" r:id="rId20" name="_ActiveXWrapper15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5">
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper14">
           <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5"/>
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4">
+        <control shapeId="1026" r:id="rId24" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4"/>
+        <control shapeId="1026" r:id="rId24" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14348,44 +14348,169 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper1">
+        <control shapeId="1029" r:id="rId28" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper1"/>
+        <control shapeId="1029" r:id="rId28" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1030" r:id="rId30" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId30" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId32" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>762000</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId32" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId34" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId34" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId36" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId36" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId38" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId38" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId40" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
@@ -14393,198 +14518,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper14"/>
+        <control shapeId="1035" r:id="rId40" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
+        <control shapeId="1036" r:id="rId42" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId33" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId34">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId33" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId35" name="_ActiveXWrapper17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId35" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId37" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId38">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId37" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId39" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId39" name="_ActiveXWrapper19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId41" name="_ActiveXWrapper20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId42">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId41" name="_ActiveXWrapper20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId43" name="_ActiveXWrapper21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId44">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId43" name="_ActiveXWrapper21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId45" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -14593,23 +14543,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId45" name="_ActiveXWrapper22"/>
+        <control shapeId="1036" r:id="rId42" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId47" name="_ActiveXWrapper23">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
+        <control shapeId="1037" r:id="rId44" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -14618,7 +14568,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId47" name="_ActiveXWrapper23"/>
+        <control shapeId="1037" r:id="rId44" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId46" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId46" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId47" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId47" name="_ActiveXWrapper27"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15125,8 +15125,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="92166" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="92163" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92163" r:id="rId4" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92162" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92162" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92161" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92161" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92164" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92164" r:id="rId10" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92165" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92165" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92166" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -15145,132 +15270,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="92166" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92165" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92165" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92164" r:id="rId8" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92164" r:id="rId8" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92161" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92161" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92162" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92162" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92163" r:id="rId14" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92163" r:id="rId14" name="_ActiveXWrapper3"/>
+        <control shapeId="92166" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15575,8 +15575,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="96262" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="96261" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96261" r:id="rId4" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96260" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96260" r:id="rId6" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96259" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96259" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96258" r:id="rId9" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96258" r:id="rId9" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96257" r:id="rId11" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96257" r:id="rId11" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96262" r:id="rId13" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -15595,132 +15720,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="96262" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96257" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96257" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96258" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96258" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96259" r:id="rId10" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96259" r:id="rId10" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96260" r:id="rId12" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96260" r:id="rId12" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96261" r:id="rId14" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96261" r:id="rId14" name="_ActiveXWrapper5"/>
+        <control shapeId="96262" r:id="rId13" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15809,8 +15809,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="99329" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="99333" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99333" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99332" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99332" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99330" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99330" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99329" r:id="rId9" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -15829,82 +15904,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="99329" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99330" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99330" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99332" r:id="rId7" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99332" r:id="rId7" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99333" r:id="rId8" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99333" r:id="rId8" name="_ActiveXWrapper4"/>
+        <control shapeId="99329" r:id="rId9" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15949,8 +15949,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="126978" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="126978" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="126977" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -15969,32 +15994,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="126978" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="126977" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17391,27 +17391,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="18435" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="18437" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="18435" r:id="rId4" name="_ActiveXWrapper2"/>
+        <control shapeId="18437" r:id="rId4" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -17441,27 +17441,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="18437" r:id="rId8" name="_ActiveXWrapper3">
+        <control shapeId="18435" r:id="rId8" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="18437" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="18435" r:id="rId8" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17522,27 +17522,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="25602" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="25603" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1400175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>1390650</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="25602" r:id="rId4" name="_ActiveXWrapper2"/>
+        <control shapeId="25603" r:id="rId4" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -17572,27 +17572,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="25603" r:id="rId8" name="_ActiveXWrapper3">
+        <control shapeId="25602" r:id="rId8" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1390650</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>1400175</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="25603" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="25602" r:id="rId8" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17657,8 +17657,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="53251" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="53252" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53252" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53250" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1400175</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53250" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53249" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53249" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53251" r:id="rId10" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17677,82 +17752,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="53251" r:id="rId4" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53249" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53249" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53250" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1400175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53250" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53252" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53252" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="53251" r:id="rId10" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/NeqSimExcel/NeqSimExcel.xlsx
+++ b/NeqSimExcel/NeqSimExcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16752" windowHeight="4416" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17364" windowHeight="4080" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Startup" sheetId="18" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="338">
   <si>
     <t>Component</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>mercury</t>
-  </si>
-  <si>
-    <t>New package</t>
   </si>
   <si>
     <t>wax temperature [C]</t>
@@ -1153,9 +1150,6 @@
     <t>NeqSim Excel (version 3.0)</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>sulfur(S8)</t>
   </si>
   <si>
@@ -1205,6 +1199,9 @@
   </si>
   <si>
     <t>c-C8</t>
+  </si>
+  <si>
+    <t>Fluid description:</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1520,6 +1517,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1528,7 +1540,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1675,6 +1687,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1683,8 +1697,36 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1701,7 +1743,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9557596019B87C9421C9861D9735F45E400699"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8A3FA4ADB8327F840398B9C58ACE605A52B4D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1715,17 +1757,17 @@
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D2E9956B12741147DD1A3DF1201F2754A13C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="204D97F042C4FD24B3E2904A251AE0D274D8F2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3704"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="445"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1749,6 +1791,23 @@
 
 <file path=xl/activeX/activeX101.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A3BFE8641768C14A9C1B0B3101F1F9F2A1B61"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4022"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX102.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -1766,10 +1825,146 @@
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="291D019922DD0C241822A1892E3343DA966B02"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2307"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="277E7FC0E21783246212B58B2585CA2DA9FA62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2096"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="572"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="27563C9BF25B55242AF2B7762A82920C774BC2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1058"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="226259A8A2EDB22432E2A3D52F494200BC9342"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4953"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="402"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24048C03D29F45243022A2762251F47955D4B2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4953"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23A4DCD2324F1824D612809F27465A32D2B212"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="466"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1EAAA176C1AC7514C061868B15C05B5B35E0B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4974"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="487"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="11F29B8CD1F51914BFA19C4D1DC2D2C131B9A1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2307"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1994EA02812BDD14C0B1A8FB1F4B95D2BB2B01"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="11D1A8EB214D8514C5B1A3D31F8935F5091591"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1781,155 +1976,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="14D36455D191EC140E31BD561E321CC6D7B5F1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="706FBF5B478C737424A79DC37BF150F4394617"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3006"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="487"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="184F374311CE991474D19A171449FEEFEF1BE1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2646"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1029F6A33115A9145641BB711EAF71403AF5C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2879"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19357786F1D686149141A459153C0DF2C0F0C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2477"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="99E80A20B9DC9A94CD39B2759AD8F94B050069"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2477"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8578E6734835BB84C2D886DE8DC04D61281918"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2477"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="73EBFB3597D7A37487A7B6FB76FEE3F98877F7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2498"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="868"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6CA29245266C5564D8069D6065AE9EF09F4DA6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3323"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="868"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E5B9BBE8412A74438348D73466C7B25D11C64"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1939,13 +1998,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="59D3618C85F26C547E558CA85FE14EE2FCF4E5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DB16E32A2195924F98291032DA20708D53D52"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2053"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2307"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="868"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1973,13 +2032,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DB16E32A2195924F98291032DA20708D53D52"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="59D3618C85F26C547E558CA85FE14EE2FCF4E5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2307"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2053"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="868"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1990,7 +2049,160 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="11D1A8EB214D8514C5B1A3D31F8935F5091591"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6CA29245266C5564D8069D6065AE9EF09F4DA6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3323"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="868"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="73EBFB3597D7A37487A7B6FB76FEE3F98877F7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2498"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="868"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8578E6734835BB84C2D886DE8DC04D61281918"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2477"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="99E80A20B9DC9A94CD39B2759AD8F94B050069"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2477"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19357786F1D686149141A459153C0DF2C0F0C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2477"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1029F6A33115A9145641BB711EAF71403AF5C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2879"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="184F374311CE991474D19A171449FEEFEF1BE1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2646"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6B08B159D6E53F648BE6AB476A6A21F0393306"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4180"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="14D36455D191EC140E31BD561E321CC6D7B5F1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3006"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="487"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1994EA02812BDD14C0B1A8FB1F4B95D2BB2B01"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2002,172 +2214,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="11F29B8CD1F51914BFA19C4D1DC2D2C131B9A1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D2E9956B12741147DD1A3DF1201F2754A13C1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2307"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3704"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1EAAA176C1AC7514C061868B15C05B5B35E0B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4974"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="487"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23A4DCD2324F1824D612809F27465A32D2B212"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="466"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24048C03D29F45243022A2762251F47955D4B2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4953"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="226259A8A2EDB22432E2A3D52F494200BC9342"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4953"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="402"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="27563C9BF25B55242AF2B7762A82920C774BC2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1058"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39A3F493A352D5348B438D913B90F58B426BC3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4101"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="277E7FC0E21783246212B58B2585CA2DA9FA62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2096"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="572"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="291D019922DD0C241822A1892E3343DA966B02"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2307"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="204D97F042C4FD24B3E2904A251AE0D274D8F2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="445"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2194,14 +2253,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="37857E2343FB4934B553A56F368F43A15B3AB3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F4EE65745F4C554DCF5A3EE5437C15E8CD915"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3387"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2228,14 +2287,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F4EE65745F4C554DCF5A3EE5437C15E8CD915"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="37857E2343FB4934B553A56F368F43A15B3AB3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3387"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2245,13 +2304,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28549ED09299EE2466728BB6292BFE182B7EE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F5F3C9513E194340A93A9B531639868C9D723"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2279,13 +2338,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F5F3C9513E194340A93A9B531639868C9D723"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28549ED09299EE2466728BB6292BFE182B7EE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2296,36 +2355,53 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2B53EE6D22AEC9248F22BC5F26474D9931F682"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="536869FBA5AFBC541C05ACE056E3A30047B075"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33B5BBEA4343E7340D139D033749854DB8E273"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4AC25C6F74961A44EB749A1D4048EBA4719A64"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23F7A02EB2EC72247C62B9D8298BDECF005962"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2342,36 +2418,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23F7A02EB2EC72247C62B9D8298BDECF005962"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33B5BBEA4343E7340D139D033749854DB8E273"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4AC25C6F74961A44EB749A1D4048EBA4719A64"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2404,8 +2463,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2566"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2561"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2421,13 +2480,30 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1958"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1947"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="762"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="273BB633F2A10E2448A2B2692559D6AB9253D2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3239"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2438,42 +2514,25 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1958"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="273BB633F2A10E2448A2B2692559D6AB9253D2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1947"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="762"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19683156C1FE8B14D2D1A5A11BCC31A74119F1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E6539469408FF44F5948BFE493D2EB5B2C1B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2500,14 +2559,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="201595F032C9E1246142AA9926B9A0F8314D62"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="314817F8E3E88634747381F033271250FE3AE3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="677"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2517,31 +2576,31 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="314817F8E3E88634747381F033271250FE3AE3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="201595F032C9E1246142AA9926B9A0F8314D62"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5186"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="762"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E6539469408FF44F5948BFE493D2EB5B2C1B4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19683156C1FE8B14D2D1A5A11BCC31A74119F1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="614"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2557,42 +2616,42 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1958"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1947"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="762"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5CCBA167151AE954A025B3DF5775A9B1B1F6A5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F64E731D4CE1B44245494D14C9683B0E34414"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2519"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F8DAF2FC19C611407D190CE1A7C44D8C1DCF1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="31F1D43EB326C134DB73A8F838B2A3B7823803"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2519"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2608,59 +2667,59 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2461"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2455"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="31F1D43EB326C134DB73A8F838B2A3B7823803"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F8DAF2FC19C611407D190CE1A7C44D8C1DCF1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2921"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F64E731D4CE1B44245494D14C9683B0E34414"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5CCBA167151AE954A025B3DF5775A9B1B1F6A5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="656"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F45B05E942B1144CB74A9F6400897F07D4DE4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1277BE43C1DAC91410B1BA171ABFF711188D21"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1588"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4932"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2670,14 +2729,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="536869FBA5AFBC541C05ACE056E3A30047B075"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2B53EE6D22AEC9248F22BC5F26474D9931F682"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2694,41 +2753,41 @@
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1277BE43C1DAC91410B1BA171ABFF711188D21"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F45B05E942B1144CB74A9F6400897F07D4DE4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1588"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="762"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C0DC5E324872344D014B8804DE43BB805D3F4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="518D37C2A557B0549895A2A050387EBD18C305"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1990"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2646"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2755,14 +2814,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1E2B4D4F31ADEF143A11B5221A20D102090DD1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C0DC5E324872344D014B8804DE43BB805D3F4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2778,13 +2837,115 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3387"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="339"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1E2B4D4F31ADEF143A11B5221A20D102090DD1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17A43E074162A2147ED1B3F91ADBE24223ADC1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3069"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="203310F762F6B524A0B2B83621DE236AA6F882"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3006"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F098DB5437383341A839CDE34AC1F7DCFBFA3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1609"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="550"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39A3F493A352D5348B438D913B90F58B426BC3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4101"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="401F28DAB42B9544FFF4A9CC4B49A9EF053184"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2244"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="466"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2795,98 +2956,13 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="445"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="401F28DAB42B9544FFF4A9CC4B49A9EF053184"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F098DB5437383341A839CDE34AC1F7DCFBFA3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1482"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="203310F762F6B524A0B2B83621DE236AA6F882"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6B08B159D6E53F648BE6AB476A6A21F0393306"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4180"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17A43E074162A2147ED1B3F91ADBE24223ADC1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.WebBrowser"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2898,12 +2974,165 @@
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="36407"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="23178"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="23982"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16D4EADA81744B14F1A18BDE1B0C049C53E8A1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="72271141F7F304743D97A5F1778C4D0587F767"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="67A6C00D6687E26475C6958E6D14CE9EE21C16"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5C510AE1455D9F542EA587FD5E4EC14F5269B5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="430516B774B476446064AB84455C95B7BAC694"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E5B9BBE8412A74438348D73466C7B25D11C64"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39C16115E3ACE13464D3A99537BCE670F37923"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4233"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2920,160 +3149,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39C16115E3ACE13464D3A99537BCE670F37923"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4233"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="430516B774B476446064AB84455C95B7BAC694"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5C510AE1455D9F542EA587FD5E4EC14F5269B5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="67A6C00D6687E26475C6958E6D14CE9EE21C16"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="72271141F7F304743D97A5F1778C4D0587F767"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="706FBF5B478C737424A79DC37BF150F4394617"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="16D4EADA81744B14F1A18BDE1B0C049C53E8A1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3090,7 +3166,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3107,36 +3183,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6152E46166DF4B643BD68A046FDB6C8411D1B6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="357B2A79332498347F03B20031F8F571CF0933"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55503E7195534254BA65BF60556A460A274585"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2328"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3146,13 +3205,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E43028E041544444F74A6C94396E211329D04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="236327E5329C47245D52A7AD2D6C7DD86F01C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -3180,13 +3239,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="236327E5329C47245D52A7AD2D6C7DD86F01C2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E43028E041544444F74A6C94396E211329D04"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -3197,31 +3256,31 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="357B2A79332498347F03B20031F8F571CF0933"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55503E7195534254BA65BF60556A460A274585"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2328"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="68033A1B56FD05648106B2226A576DF3F7F206"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6152E46166DF4B643BD68A046FDB6C8411D1B6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3231,7 +3290,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8A3FA4ADB8327F840398B9C58ACE605A52B4D8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9557596019B87C9421C9861D9735F45E400699"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3245,17 +3304,17 @@
 
 <file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F62FABC01C0701401A183A71A107BBBBCD3B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="53A1C41F059FDB54CBA58BFE5A4C386E5C5075"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3265,13 +3324,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FA0185362EB642483C28B0C2E919634E93C32"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C9459A6C4C41B44E214B19F489A41B8FDE2B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -3299,13 +3358,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C9459A6C4C41B44E214B19F489A41B8FDE2B4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FA0185362EB642483C28B0C2E919634E93C32"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -3313,17 +3372,17 @@
 
 <file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="53A1C41F059FDB54CBA58BFE5A4C386E5C5075"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F62FABC01C0701401A183A71A107BBBBCD3B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3333,13 +3392,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BD9DA6BF17560145B618E451B052818D43BF1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="68033A1B56FD05648106B2226A576DF3F7F206"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -3347,17 +3406,17 @@
 
 <file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2954B6DE02D8C324C5629F1E2D3DCBAB99B1C2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5444E502D5E8AC544475A18758CA96B2F793D5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3381,17 +3440,17 @@
 
 <file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5444E502D5E8AC544475A18758CA96B2F793D5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2954B6DE02D8C324C5629F1E2D3DCBAB99B1C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3401,13 +3460,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A3BFE8641768C14A9C1B0B3101F1F9F2A1B61"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BD9DA6BF17560145B618E451B052818D43BF1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4022"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -4053,7 +4112,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>594360</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4440,7 +4499,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>45720</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4755,7 +4814,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>594360</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4817,7 +4876,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>7620</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5000,14 +5059,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>937260</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:colOff>982980</xdr:colOff>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5019,6 +5078,68 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004240000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>975360</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9221" name="_ActiveXWrapper7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9221"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F30DB76-2BAB-49BD-A215-4854EB3529FB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5204,7 +5325,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5265,8 +5386,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1089660</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5320,15 +5441,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1600200</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>1645920</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5388,9 +5509,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>365760</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5450,7 +5571,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>365760</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10243,17 +10364,17 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10261,7 +10382,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10272,33 +10393,33 @@
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10309,33 +10430,33 @@
     </row>
     <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10346,17 +10467,17 @@
     </row>
     <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10372,7 +10493,7 @@
     </row>
     <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10383,17 +10504,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -10401,7 +10522,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -10409,17 +10530,17 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -10460,18 +10581,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66569" r:id="rId5" name="_ActiveXWrapper9">
+        <control shapeId="66568" r:id="rId5" name="_ActiveXWrapper8">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>45720</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="66568" r:id="rId5" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="66567" r:id="rId7" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>373380</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1965960</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10480,49 +10626,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66569" r:id="rId5" name="_ActiveXWrapper9"/>
+        <control shapeId="66567" r:id="rId7" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66564" r:id="rId7" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+        <control shapeId="66566" r:id="rId9" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>365760</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1722120</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:colOff>1866900</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66564" r:id="rId7" name="_ActiveXWrapper4"/>
+        <control shapeId="66566" r:id="rId9" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66563" r:id="rId9" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+        <control shapeId="66565" r:id="rId11" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:colOff>373380</xdr:colOff>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1836420</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:colOff>2057400</xdr:colOff>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </to>
             </anchor>
@@ -10530,32 +10676,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66563" r:id="rId9" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="66562" r:id="rId11" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1943100</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="66562" r:id="rId11" name="_ActiveXWrapper2"/>
+        <control shapeId="66565" r:id="rId11" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10585,19 +10706,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66565" r:id="rId15" name="_ActiveXWrapper5">
+        <control shapeId="66562" r:id="rId15" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:colOff>365760</xdr:colOff>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>2057400</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:colOff>1943100</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>137160</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="66562" r:id="rId15" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="66563" r:id="rId17" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>365760</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1836420</xdr:colOff>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </to>
             </anchor>
@@ -10605,48 +10751,48 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66565" r:id="rId15" name="_ActiveXWrapper5"/>
+        <control shapeId="66563" r:id="rId17" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66566" r:id="rId17" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+        <control shapeId="66564" r:id="rId19" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>365760</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1866900</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>1722120</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66566" r:id="rId17" name="_ActiveXWrapper6"/>
+        <control shapeId="66564" r:id="rId19" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66567" r:id="rId19" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+        <control shapeId="66569" r:id="rId21" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>144780</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1965960</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10655,32 +10801,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66567" r:id="rId19" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="66568" r:id="rId21" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="66568" r:id="rId21" name="_ActiveXWrapper8"/>
+        <control shapeId="66569" r:id="rId21" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10707,7 +10828,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10715,7 +10836,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10742,8 +10863,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37889" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="37890" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>594360</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="37890" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="37889" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -10762,32 +10908,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37889" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="37890" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="37890" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="37889" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10810,29 +10931,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10879,8 +11000,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="8196" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>45720</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>518160</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8196" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8195" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>45720</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>137160</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>518160</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8195" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8194" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>30480</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>137160</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8194" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8193" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -10899,82 +11095,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>30480</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>518160</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>518160</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="8193" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11077,27 +11198,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11107,7 +11228,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11117,7 +11238,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11127,7 +11248,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11137,54 +11258,54 @@
     </row>
     <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="45">
         <v>1</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="47">
         <v>15</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11192,25 +11313,25 @@
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="40"/>
       <c r="J11" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11" s="50"/>
       <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E12" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" s="56">
         <f>100-F13-F14</f>
@@ -11220,18 +11341,18 @@
         <v>52</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K12" s="45">
         <v>10</v>
       </c>
       <c r="L12" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11246,13 +11367,13 @@
         <v>52</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K13" s="45">
         <v>1</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -11271,7 +11392,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="4">
         <f>B2+B3+2*B4+2*B5+2*B6+2*B7+2*B8-B9-B10-2*B11-B13</f>
@@ -11286,12 +11407,12 @@
         <v>66</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -11303,52 +11424,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48133" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="48132" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1036320</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>982980</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48133" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="48132" r:id="rId4" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48129" r:id="rId6" name="_ActiveXWrapper1">
+        <control shapeId="48131" r:id="rId6" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>137160</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>106680</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>982980</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48129" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="48131" r:id="rId6" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11378,52 +11499,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48131" r:id="rId10" name="_ActiveXWrapper3">
+        <control shapeId="48129" r:id="rId10" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:colOff>137160</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>982980</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>45720</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>137160</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48131" r:id="rId10" name="_ActiveXWrapper3"/>
+        <control shapeId="48129" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48132" r:id="rId12" name="_ActiveXWrapper4">
+        <control shapeId="48133" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>45720</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>982980</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1036320</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>106680</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48132" r:id="rId12" name="_ActiveXWrapper4"/>
+        <control shapeId="48133" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11463,7 +11584,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11479,7 +11600,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -11488,12 +11609,12 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -11505,8 +11626,58 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44036" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="44033" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>594360</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="44033" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="44035" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="44035" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="44036" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -11525,57 +11696,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44036" r:id="rId4" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="44035" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="44035" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId8" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="44033" r:id="rId8" name="_ActiveXWrapper1"/>
+        <control shapeId="44036" r:id="rId8" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11587,34 +11708,36 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="94" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="D3" s="95"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>321</v>
-      </c>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -11623,9 +11746,6 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <hyperlinks>
-    <hyperlink ref="D3" location="NeqSimWeb!A1" display="New package"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11633,27 +11753,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9220" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="9221" r:id="rId4" name="_ActiveXWrapper7">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>220980</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>937260</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>975360</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9220" r:id="rId4" name="_ActiveXWrapper2"/>
+        <control shapeId="9221" r:id="rId4" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11681,6 +11801,31 @@
         <control shapeId="9219" r:id="rId6" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9220" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>982980</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9220" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
@@ -11736,7 +11881,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -11767,8 +11912,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="10242" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>220980</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10242" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -11787,32 +11957,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>220980</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="10241" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11825,7 +11970,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11842,19 +11987,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -11865,7 +12010,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -11881,13 +12026,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -11895,13 +12040,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6">
         <v>24</v>
@@ -11909,13 +12054,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>48</v>
@@ -11923,7 +12068,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11933,13 +12078,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11947,7 +12092,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -11959,108 +12104,8 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82949" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="82945" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="82949" r:id="rId4" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="82948" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="82948" r:id="rId6" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="82947" r:id="rId7" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1600200</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>525780</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="82947" r:id="rId7" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="82946" r:id="rId9" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1089660</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="82946" r:id="rId9" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="82945" r:id="rId11" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -12072,14 +12117,114 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82945" r:id="rId11" name="_ActiveXWrapper1"/>
+        <control shapeId="82945" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="82946" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>144780</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1089660</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>160020</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="82946" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="82947" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1645920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>160020</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="82947" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="82948" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="82948" r:id="rId10" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="82949" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="82949" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12147,72 +12292,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -12224,7 +12369,207 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="84993" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="85003" r:id="rId4" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1524000</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85003" r:id="rId4" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85002" r:id="rId6" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1516380</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85002" r:id="rId6" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85001" r:id="rId7" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1516380</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85001" r:id="rId7" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84999" r:id="rId8" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1516380</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84999" r:id="rId8" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84998" r:id="rId9" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1516380</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84998" r:id="rId9" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84997" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1516380</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84997" r:id="rId10" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84996" r:id="rId11" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1516380</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84996" r:id="rId11" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84995" r:id="rId12" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1531620</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84995" r:id="rId12" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84993" r:id="rId14" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -12244,207 +12589,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="84993" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84995" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1531620</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84995" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84996" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1516380</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84996" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84997" r:id="rId9" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1516380</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84997" r:id="rId9" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84998" r:id="rId10" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1516380</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84998" r:id="rId10" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84999" r:id="rId11" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1516380</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84999" r:id="rId11" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85001" r:id="rId12" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1516380</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85001" r:id="rId12" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85002" r:id="rId13" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1516380</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85002" r:id="rId13" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85003" r:id="rId14" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1524000</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85003" r:id="rId14" name="_ActiveXWrapper7"/>
+        <control shapeId="84993" r:id="rId14" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12456,7 +12601,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
@@ -12523,7 +12668,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="11"/>
       <c r="O2" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P2" s="14"/>
     </row>
@@ -12657,7 +12802,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="K8" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L8" s="20"/>
     </row>
@@ -12679,13 +12824,13 @@
       </c>
       <c r="L9" s="28"/>
       <c r="O9" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B10" s="29">
         <v>0</v>
@@ -12754,7 +12899,7 @@
     </row>
     <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B13" s="29">
         <v>0</v>
@@ -12769,7 +12914,7 @@
     </row>
     <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B14" s="29">
         <v>0</v>
@@ -12784,7 +12929,7 @@
     </row>
     <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B15" s="29">
         <v>0</v>
@@ -12799,7 +12944,7 @@
     </row>
     <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B16" s="29">
         <v>0</v>
@@ -12814,7 +12959,7 @@
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B17" s="29">
         <v>0</v>
@@ -12903,7 +13048,7 @@
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B23" s="29">
         <v>0</v>
@@ -12938,7 +13083,7 @@
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B26" s="29">
         <v>0</v>
@@ -14143,7 +14288,7 @@
     </row>
     <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B114" s="29">
         <v>0</v>
@@ -14154,7 +14299,7 @@
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B115" s="29">
         <v>0</v>
@@ -14185,43 +14330,243 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper27">
+        <control shapeId="1051" r:id="rId4" name="_ActiveXWrapper23">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>53340</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>83820</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>548640</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper27"/>
+        <control shapeId="1051" r:id="rId4" name="_ActiveXWrapper23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId6" name="_ActiveXWrapper12">
+        <control shapeId="1050" r:id="rId6" name="_ActiveXWrapper22">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>601980</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>716280</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId6" name="_ActiveXWrapper22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId8" name="_ActiveXWrapper21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>137160</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>99060</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId8" name="_ActiveXWrapper21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId10" name="_ActiveXWrapper20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>251460</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>632460</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId10" name="_ActiveXWrapper20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId12" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>144780</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>594360</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>121920</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId12" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId14" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>45720</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>83820</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>601980</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId14" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId16" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>106680</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>106680</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId16" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId18" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>601980</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId18" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId20" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>601980</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>716280</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId20" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>510540</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>99060</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>297180</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>137160</xdr:rowOff>
               </to>
@@ -14230,99 +14575,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId6" name="_ActiveXWrapper12"/>
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId8" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1026" r:id="rId24" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>251460</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>53340</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId8" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId10" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>83820</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>411480</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId10" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>563880</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>137160</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>403860</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
@@ -14330,132 +14600,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId16" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>167640</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>434340</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId16" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>175260</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>891540</xdr:colOff>
-                <xdr:row>117</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>510540</xdr:colOff>
-                <xdr:row>119</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>117</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>784860</xdr:colOff>
-                <xdr:row>119</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>830580</xdr:colOff>
-                <xdr:row>117</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>119</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4"/>
+        <control shapeId="1026" r:id="rId24" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14485,19 +14630,144 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper1">
+        <control shapeId="1029" r:id="rId28" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>830580</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId28" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId30" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>784860</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId30" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId32" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>891540</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>510540</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId32" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId34" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>53340</xdr:rowOff>
+                <xdr:colOff>175260</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:colOff>441960</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>99060</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId34" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId36" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>167640</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>434340</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId36" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId38" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>137160</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>99060</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>403860</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
@@ -14505,23 +14775,98 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper1"/>
+        <control shapeId="1034" r:id="rId38" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1035" r:id="rId40" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>510540</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>563880</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>121920</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId40" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId42" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>83820</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId42" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId44" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId44" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId46" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>373380</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>99060</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>297180</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>137160</xdr:rowOff>
               </to>
@@ -14530,232 +14875,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper14"/>
+        <control shapeId="1038" r:id="rId46" name="_ActiveXWrapper12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
+        <control shapeId="1039" r:id="rId47" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>601980</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>716280</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>441960</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId33" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId34">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>601980</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId33" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId35" name="_ActiveXWrapper17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId35" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId37" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId38">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>601980</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId37" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId39" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId39" name="_ActiveXWrapper19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId41" name="_ActiveXWrapper20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId42">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>632460</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId41" name="_ActiveXWrapper20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId43" name="_ActiveXWrapper21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId44">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>137160</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId43" name="_ActiveXWrapper21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId45" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>601980</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>716280</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId45" name="_ActiveXWrapper22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId47" name="_ActiveXWrapper23">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>53340</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>548640</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId47" name="_ActiveXWrapper23"/>
+        <control shapeId="1039" r:id="rId47" name="_ActiveXWrapper27"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14814,16 +14959,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="C1" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="D1" s="72" t="s">
         <v>227</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -14910,22 +15055,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="C1" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="D1" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="F1" s="72" t="s">
         <v>229</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -15014,7 +15159,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -15022,230 +15167,230 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" t="s">
         <v>245</v>
-      </c>
-      <c r="H6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B15">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B16">
         <v>1.5</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19" s="73">
         <v>0.01</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F19" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" t="s">
         <v>289</v>
-      </c>
-      <c r="H19" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20">
         <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -15262,8 +15407,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="92166" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="92163" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>144780</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92163" r:id="rId4" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92162" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92162" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92161" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>144780</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>617220</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92161" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92164" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92164" r:id="rId10" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92165" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92165" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92166" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -15282,132 +15552,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="92166" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92165" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92165" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92164" r:id="rId8" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92164" r:id="rId8" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92161" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>617220</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92161" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92162" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92162" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92163" r:id="rId14" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92163" r:id="rId14" name="_ActiveXWrapper3"/>
+        <control shapeId="92166" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15435,7 +15580,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -15443,259 +15588,259 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" t="s">
         <v>245</v>
-      </c>
-      <c r="H6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" t="s">
         <v>273</v>
-      </c>
-      <c r="H13" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B15">
         <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16">
         <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17">
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B18">
         <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21">
         <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B23" s="73">
         <v>0.01</v>
       </c>
       <c r="C23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24">
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -15712,8 +15857,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="96262" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="96261" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96261" r:id="rId4" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96260" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96260" r:id="rId6" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96259" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>144780</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96259" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96258" r:id="rId9" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96258" r:id="rId9" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96257" r:id="rId11" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>144780</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>617220</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96257" r:id="rId11" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96262" r:id="rId13" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -15732,132 +16002,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="96262" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96257" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>617220</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96257" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96258" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96258" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96259" r:id="rId10" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96259" r:id="rId10" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96260" r:id="rId12" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96260" r:id="rId12" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96261" r:id="rId14" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96261" r:id="rId14" name="_ActiveXWrapper5"/>
+        <control shapeId="96262" r:id="rId13" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15882,59 +16027,59 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" t="s">
         <v>301</v>
       </c>
-      <c r="B7" t="s">
-        <v>302</v>
-      </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -15946,8 +16091,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="99329" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="99333" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>601980</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>121920</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99333" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99332" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>137160</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99332" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99330" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99330" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99329" r:id="rId9" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -15966,82 +16186,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="99329" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99330" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99330" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99332" r:id="rId7" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99332" r:id="rId7" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99333" r:id="rId8" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>601980</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99333" r:id="rId8" name="_ActiveXWrapper4"/>
+        <control shapeId="99329" r:id="rId9" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16064,7 +16209,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -16086,8 +16231,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="126978" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>259080</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="126978" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="126977" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -16106,32 +16276,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>259080</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="126978" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="126977" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16172,7 +16317,7 @@
         <v>54</v>
       </c>
       <c r="F1" s="81" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G1" s="82" t="s">
         <v>19</v>
@@ -16183,7 +16328,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="84" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G2" s="39">
         <v>40</v>
@@ -16194,7 +16339,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="84" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G3" s="39">
         <v>15</v>
@@ -16205,7 +16350,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="84" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G4" s="39">
         <v>1.01325</v>
@@ -16227,7 +16372,7 @@
         <v>150</v>
       </c>
       <c r="H6" s="87" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -16299,33 +16444,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="E1" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="80" t="s">
-        <v>309</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>308</v>
-      </c>
-      <c r="E1" s="80" t="s">
+      <c r="F1" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="G1" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="H1" s="80" t="s">
         <v>313</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2">
         <v>236.57399902343801</v>
@@ -17528,27 +17673,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="18435" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="18437" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>259080</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>106680</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>213360</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="18435" r:id="rId4" name="_ActiveXWrapper2"/>
+        <control shapeId="18437" r:id="rId4" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -17578,27 +17723,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="18437" r:id="rId8" name="_ActiveXWrapper3">
+        <control shapeId="18435" r:id="rId8" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>259080</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>144780</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>213360</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="18437" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="18435" r:id="rId8" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17659,27 +17804,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="25602" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="25603" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1402080</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>1394460</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>99060</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="25602" r:id="rId4" name="_ActiveXWrapper2"/>
+        <control shapeId="25603" r:id="rId4" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -17709,27 +17854,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="25603" r:id="rId8" name="_ActiveXWrapper3">
+        <control shapeId="25602" r:id="rId8" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1394460</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
+                <xdr:colOff>1402080</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="25603" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="25602" r:id="rId8" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17753,12 +17898,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -17774,7 +17919,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -17794,8 +17939,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="53251" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="53252" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53252" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53250" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1402080</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53250" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53249" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>83820</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>899160</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53249" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53251" r:id="rId10" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17814,82 +18034,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="53251" r:id="rId4" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53249" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>68580</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>899160</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53249" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53250" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1402080</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53250" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53252" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53252" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="53251" r:id="rId10" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18113,7 +18258,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/NeqSimExcel/NeqSimExcel.xlsx
+++ b/NeqSimExcel/NeqSimExcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="6345" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="7350" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Startup" sheetId="18" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="333">
   <si>
     <t>Component</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>mercury</t>
-  </si>
-  <si>
-    <t>New package</t>
   </si>
   <si>
     <t>wax temperature [C]</t>
@@ -838,9 +835,6 @@
     <t>Conductivity model</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Recombine</t>
   </si>
   <si>
@@ -1181,6 +1175,18 @@
   </si>
   <si>
     <t>Sm^3 gas/Sm^3 oil</t>
+  </si>
+  <si>
+    <t>Save to local file</t>
+  </si>
+  <si>
+    <t>Local fluid directory</t>
+  </si>
+  <si>
+    <t>File settings</t>
+  </si>
+  <si>
+    <t>local fluid name</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1677,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8A3FA4ADB8327F840398B9C58ACE605A52B4D8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9557596019B87C9421C9861D9735F45E400699"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1685,22 +1691,39 @@
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="204D97F042C4FD24B3E2904A251AE0D274D8F2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D2E9956B12741147DD1A3DF1201F2754A13C1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3572"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX100.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5444E502D5E8AC544475A18758CA96B2F793D5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX101.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1717,7 +1740,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX102.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28C3B6D13208972429F293A32C2113DBFA4122"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX103.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1736,146 +1776,10 @@
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="291D019922DD0C241822A1892E3343DA966B02"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="277E7FC0E21783246212B58B2585CA2DA9FA62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="27563C9BF25B55242AF2B7762A82920C774BC2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1058"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="226259A8A2EDB22432E2A3D52F494200BC9342"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24048C03D29F45243022A2762251F47955D4B2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23A4DCD2324F1824D612809F27465A32D2B212"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1EAAA176C1AC7514C061868B15C05B5B35E0B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4868"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="11F29B8CD1F51914BFA19C4D1DC2D2C131B9A1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="11D1A8EB214D8514C5B1A3D31F8935F5091591"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1994EA02812BDD14C0B1A8FB1F4B95D2BB2B01"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1887,19 +1791,155 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="14D36455D191EC140E31BD561E321CC6D7B5F1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="184F374311CE991474D19A171449FEEFEF1BE1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2593"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1029F6A33115A9145641BB711EAF71403AF5C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2831"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19357786F1D686149141A459153C0DF2C0F0C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="99E80A20B9DC9A94CD39B2759AD8F94B050069"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8578E6734835BB84C2D886DE8DC04D61281918"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="73EBFB3597D7A37487A7B6FB76FEE3F98877F7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6CA29245266C5564D8069D6065AE9EF09F4DA6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="706FBF5B478C737424A79DC37BF150F4394617"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E5B9BBE8412A74438348D73466C7B25D11C64"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1909,14 +1949,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DB16E32A2195924F98291032DA20708D53D52"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="59D3618C85F26C547E558CA85FE14EE2FCF4E5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1943,14 +1983,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="59D3618C85F26C547E558CA85FE14EE2FCF4E5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DB16E32A2195924F98291032DA20708D53D52"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1960,160 +2000,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6CA29245266C5564D8069D6065AE9EF09F4DA6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="73EBFB3597D7A37487A7B6FB76FEE3F98877F7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8578E6734835BB84C2D886DE8DC04D61281918"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="99E80A20B9DC9A94CD39B2759AD8F94B050069"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19357786F1D686149141A459153C0DF2C0F0C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1029F6A33115A9145641BB711EAF71403AF5C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2831"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="184F374311CE991474D19A171449FEEFEF1BE1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2593"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6B08B159D6E53F648BE6AB476A6A21F0393306"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4180"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="14D36455D191EC140E31BD561E321CC6D7B5F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1994EA02812BDD14C0B1A8FB1F4B95D2BB2B01"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="11D1A8EB214D8514C5B1A3D31F8935F5091591"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2125,19 +2012,172 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D2E9956B12741147DD1A3DF1201F2754A13C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="11F29B8CD1F51914BFA19C4D1DC2D2C131B9A1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3572"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1EAAA176C1AC7514C061868B15C05B5B35E0B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4868"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23A4DCD2324F1824D612809F27465A32D2B212"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24048C03D29F45243022A2762251F47955D4B2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="226259A8A2EDB22432E2A3D52F494200BC9342"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="27563C9BF25B55242AF2B7762A82920C774BC2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1058"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39A3F493A352D5348B438D913B90F58B426BC3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4101"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="277E7FC0E21783246212B58B2585CA2DA9FA62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="291D019922DD0C241822A1892E3343DA966B02"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="204D97F042C4FD24B3E2904A251AE0D274D8F2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2164,14 +2204,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F4EE65745F4C554DCF5A3EE5437C15E8CD915"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="37857E2343FB4934B553A56F368F43A15B3AB3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3387"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2198,14 +2238,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="37857E2343FB4934B553A56F368F43A15B3AB3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F4EE65745F4C554DCF5A3EE5437C15E8CD915"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3387"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2215,13 +2255,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F5F3C9513E194340A93A9B531639868C9D723"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28549ED09299EE2466728BB6292BFE182B7EE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2249,13 +2289,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28549ED09299EE2466728BB6292BFE182B7EE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F5F3C9513E194340A93A9B531639868C9D723"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2266,36 +2306,53 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="536869FBA5AFBC541C05ACE056E3A30047B075"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2B53EE6D22AEC9248F22BC5F26474D9931F682"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4AC25C6F74961A44EB749A1D4048EBA4719A64"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33B5BBEA4343E7340D139D033749854DB8E273"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="18EADCCC4152391495318DDB1E807DCA1F9CC1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2312,36 +2369,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="18EADCCC4152391495318DDB1E807DCA1F9CC1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4AC25C6F74961A44EB749A1D4048EBA4719A64"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33B5BBEA4343E7340D139D033749854DB8E273"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2399,6 +2439,23 @@
 
 <file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="169131AA510FBC14CD51BA6C1A6AF0189B9F91"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1958"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -2414,36 +2471,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="169131AA510FBC14CD51BA6C1A6AF0189B9F91"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19683156C1FE8B14D2D1A5A11BCC31A74119F1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1958"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E6539469408FF44F5948BFE493D2EB5B2C1B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2470,6 +2510,23 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="201595F032C9E1246142AA9926B9A0F8314D62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="314817F8E3E88634747381F033271250FE3AE3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -2482,36 +2539,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="201595F032C9E1246142AA9926B9A0F8314D62"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E6539469408FF44F5948BFE493D2EB5B2C1B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19683156C1FE8B14D2D1A5A11BCC31A74119F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2535,34 +2575,34 @@
 
 <file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F64E731D4CE1B44245494D14C9683B0E34414"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5CCBA167151AE954A025B3DF5775A9B1B1F6A5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="31F1D43EB326C134DB73A8F838B2A3B7823803"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F8DAF2FC19C611407D190CE1A7C44D8C1DCF1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2586,51 +2626,51 @@
 
 <file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F8DAF2FC19C611407D190CE1A7C44D8C1DCF1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="31F1D43EB326C134DB73A8F838B2A3B7823803"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5CCBA167151AE954A025B3DF5775A9B1B1F6A5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F64E731D4CE1B44245494D14C9683B0E34414"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1277BE43C1DAC91410B1BA171ABFF711188D21"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F45B05E942B1144CB74A9F6400897F07D4DE4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1588"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2640,14 +2680,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2B53EE6D22AEC9248F22BC5F26474D9931F682"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="536869FBA5AFBC541C05ACE056E3A30047B075"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2671,34 +2711,34 @@
 
 <file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F45B05E942B1144CB74A9F6400897F07D4DE4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1277BE43C1DAC91410B1BA171ABFF711188D21"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1588"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33305FF99385AA345543A7693D4A13F145DD43"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6FAB9A4E0600ED6418269FA068BF9A4C00EA46"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3625"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1905"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2722,17 +2762,17 @@
 
 <file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DE31B0B627102248E12810C21BF99F709A3D2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33305FF99385AA345543A7693D4A13F145DD43"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3625"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2756,22 +2796,90 @@
 
 <file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17A43E074162A2147ED1B3F91ADBE24223ADC1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DE31B0B627102248E12810C21BF99F709A3D2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="550AA336554E21545B259DBA51805BC9CD7805"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="401F28DAB42B9544FFF4A9CC4B49A9EF053184"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F098DB5437383341A839CDE34AC1F7DCFBFA3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1482"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6B08B159D6E53F648BE6AB476A6A21F0393306"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4180"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2788,75 +2896,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F098DB5437383341A839CDE34AC1F7DCFBFA3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17A43E074162A2147ED1B3F91ADBE24223ADC1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1482"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="401F28DAB42B9544FFF4A9CC4B49A9EF053184"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39A3F493A352D5348B438D913B90F58B426BC3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4101"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="550AA336554E21545B259DBA51805BC9CD7805"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.WebBrowser"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2873,7 +2930,160 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CFED2BE119AE914D4C1BB4319AF98EDDC6301"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39C16115E3ACE13464D3A99537BCE670F37923"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4233"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="430516B774B476446064AB84455C95B7BAC694"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5C510AE1455D9F542EA587FD5E4EC14F5269B5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="67A6C00D6687E26475C6958E6D14CE9EE21C16"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="72271141F7F304743D97A5F1778C4D0587F767"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="706FBF5B478C737424A79DC37BF150F4394617"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2890,160 +3100,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1DBCC408B1A98414DB418B8514B308F95DA541"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2699"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="72271141F7F304743D97A5F1778C4D0587F767"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="67A6C00D6687E26475C6958E6D14CE9EE21C16"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5C510AE1455D9F542EA587FD5E4EC14F5269B5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="430516B774B476446064AB84455C95B7BAC694"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39C16115E3ACE13464D3A99537BCE670F37923"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4233"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E5B9BBE8412A74438348D73466C7B25D11C64"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CFED2BE119AE914D4C1BB4319AF98EDDC6301"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3060,7 +3134,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3077,7 +3151,109 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6152E46166DF4B643BD68A046FDB6C8411D1B6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55503E7195534254BA65BF60556A460A274585"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2328"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E43028E041544444F74A6C94396E211329D04"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1633AAB911554C142501BF9817820FBE6FEDA1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="236327E5329C47245D52A7AD2D6C7DD86F01C2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8A3FA4ADB8327F840398B9C58ACE605A52B4D8"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3094,12 +3270,46 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="236327E5329C47245D52A7AD2D6C7DD86F01C2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="68033A1B56FD05648106B2226A576DF3F7F206"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F62FABC01C0701401A183A71A107BBBBCD3B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FA0185362EB642483C28B0C2E919634E93C32"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3111,29 +3321,29 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1633AAB911554C142501BF9817820FBE6FEDA1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3B7CE220A34E453492C39F323642F8E458B603"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E43028E041544444F74A6C94396E211329D04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C9459A6C4C41B44E214B19F489A41B8FDE2B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3145,41 +3355,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55503E7195534254BA65BF60556A460A274585"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2328"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6152E46166DF4B643BD68A046FDB6C8411D1B6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3196,131 +3372,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9557596019B87C9421C9861D9735F45E400699"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C9459A6C4C41B44E214B19F489A41B8FDE2B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3B7CE220A34E453492C39F323642F8E458B603"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FA0185362EB642483C28B0C2E919634E93C32"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F62FABC01C0701401A183A71A107BBBBCD3B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="68033A1B56FD05648106B2226A576DF3F7F206"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5444E502D5E8AC544475A18758CA96B2F793D5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E96453F74631944EB14B41B4161216A52F4A4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BD9DA6BF17560145B618E451B052818D43BF1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3332,7 +3389,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3349,12 +3406,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX99.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BD9DA6BF17560145B618E451B052818D43BF1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E96453F74631944EB14B41B4161216A52F4A4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3362,23 +3419,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX99.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28C3B6D13208972429F293A32C2113DBFA4122"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -4970,15 +5010,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>933450</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>809625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4989,6 +5029,68 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004240000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9222" name="_ActiveXWrapper4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9222"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6063,6 +6165,68 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000B4C0100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>990600</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85004" name="_ActiveXWrapper10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s85004"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000C4C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10213,17 +10377,17 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -10231,7 +10395,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="66" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -10242,33 +10406,33 @@
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10279,33 +10443,33 @@
     </row>
     <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="68" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="68" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10316,17 +10480,17 @@
     </row>
     <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10342,7 +10506,7 @@
     </row>
     <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10353,17 +10517,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="68" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="68" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -10371,7 +10535,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -10379,17 +10543,17 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="74" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -10430,43 +10594,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66568" r:id="rId5" name="_ActiveXWrapper8">
+        <control shapeId="66569" r:id="rId5" name="_ActiveXWrapper9">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="66568" r:id="rId5" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="66567" r:id="rId7" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1962150</xdr:colOff>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10475,49 +10614,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66567" r:id="rId7" name="_ActiveXWrapper7"/>
+        <control shapeId="66569" r:id="rId5" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66566" r:id="rId9" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+        <control shapeId="66564" r:id="rId7" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1866900</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66566" r:id="rId9" name="_ActiveXWrapper6"/>
+        <control shapeId="66564" r:id="rId7" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66565" r:id="rId11" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+        <control shapeId="66563" r:id="rId9" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>2057400</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:colOff>1838325</xdr:colOff>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10525,7 +10664,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66565" r:id="rId11" name="_ActiveXWrapper5"/>
+        <control shapeId="66563" r:id="rId9" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="66562" r:id="rId11" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1943100</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="66562" r:id="rId11" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10555,44 +10719,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66562" r:id="rId15" name="_ActiveXWrapper2">
+        <control shapeId="66565" r:id="rId15" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1943100</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="66562" r:id="rId15" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="66563" r:id="rId17" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1838325</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:colOff>2057400</xdr:colOff>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10600,48 +10739,48 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66563" r:id="rId17" name="_ActiveXWrapper3"/>
+        <control shapeId="66565" r:id="rId15" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66564" r:id="rId19" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+        <control shapeId="66566" r:id="rId17" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>1866900</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66564" r:id="rId19" name="_ActiveXWrapper4"/>
+        <control shapeId="66566" r:id="rId17" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66569" r:id="rId21" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
+        <control shapeId="66567" r:id="rId19" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1962150</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10650,7 +10789,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66569" r:id="rId21" name="_ActiveXWrapper9"/>
+        <control shapeId="66567" r:id="rId19" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="66568" r:id="rId21" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="66568" r:id="rId21" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10677,7 +10841,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -10685,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -10712,8 +10876,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37890" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="37889" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="37889" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="37890" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -10732,32 +10921,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37890" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="37889" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="37889" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="37890" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10780,29 +10944,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -10849,8 +11013,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8195" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8195" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -10869,82 +11108,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8196" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8193" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11047,27 +11211,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11077,7 +11241,7 @@
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11087,7 +11251,7 @@
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11097,7 +11261,7 @@
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11107,54 +11271,54 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="48">
         <v>1</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="50">
         <v>15</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11162,25 +11326,25 @@
     </row>
     <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="43"/>
       <c r="J11" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11" s="53"/>
       <c r="L11" s="43"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" s="59">
         <f>100-F13-F14</f>
@@ -11190,18 +11354,18 @@
         <v>52</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K12" s="48">
         <v>10</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11216,13 +11380,13 @@
         <v>52</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K13" s="48">
         <v>1</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -11241,7 +11405,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="4">
         <f>B2+B3+2*B4+2*B5+2*B6+2*B7+2*B8-B9-B10-2*B11-B13</f>
@@ -11256,12 +11420,12 @@
         <v>66</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -11273,52 +11437,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48132" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="48133" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1038225</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48132" r:id="rId4" name="_ActiveXWrapper4"/>
+        <control shapeId="48133" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48131" r:id="rId6" name="_ActiveXWrapper3">
+        <control shapeId="48129" r:id="rId6" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48131" r:id="rId6" name="_ActiveXWrapper3"/>
+        <control shapeId="48129" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11348,52 +11512,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48129" r:id="rId10" name="_ActiveXWrapper1">
+        <control shapeId="48131" r:id="rId10" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48129" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="48131" r:id="rId10" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48133" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="48132" r:id="rId12" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48133" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="48132" r:id="rId12" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11433,7 +11597,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -11449,7 +11613,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -11458,12 +11622,12 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -11475,27 +11639,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="44036" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="44036" r:id="rId4" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11525,27 +11689,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44036" r:id="rId8" name="_ActiveXWrapper3">
+        <control shapeId="44033" r:id="rId8" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44036" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="44033" r:id="rId8" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11555,35 +11719,33 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>292</v>
+      <c r="A1" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -11591,11 +11753,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <hyperlinks>
-    <hyperlink ref="D3" location="NeqSimWeb!A1" display="New package"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11603,8 +11780,58 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9219" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="9222" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9222" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9220" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>809625</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9220" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9219" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -11623,32 +11850,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9219" r:id="rId4" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9220" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>933450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9220" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="9219" r:id="rId8" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11706,7 +11908,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -11737,8 +11939,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -11757,32 +11984,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10242" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10241" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11795,7 +11997,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11812,19 +12014,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -11835,7 +12037,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -11851,13 +12053,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -11865,13 +12067,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6">
         <v>24</v>
@@ -11879,13 +12081,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>48</v>
@@ -11893,7 +12095,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -11903,13 +12105,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -11917,7 +12119,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -11929,52 +12131,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82945" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="82949" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82945" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="82949" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82946" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="82948" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82946" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="82948" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12004,52 +12206,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82948" r:id="rId9" name="_ActiveXWrapper4">
+        <control shapeId="82946" r:id="rId9" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82948" r:id="rId9" name="_ActiveXWrapper4"/>
+        <control shapeId="82946" r:id="rId9" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82949" r:id="rId11" name="_ActiveXWrapper5">
+        <control shapeId="82945" r:id="rId11" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82949" r:id="rId11" name="_ActiveXWrapper5"/>
+        <control shapeId="82945" r:id="rId11" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12103,86 +12305,92 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>217</v>
+      <c r="A22" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -12194,7 +12402,207 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="85003" r:id="rId4" name="_ActiveXWrapper7">
+        <control shapeId="84993" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1524000</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84993" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84995" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1533525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84995" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84996" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84996" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84997" r:id="rId9" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84997" r:id="rId9" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84998" r:id="rId10" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84998" r:id="rId10" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84999" r:id="rId11" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84999" r:id="rId11" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85001" r:id="rId12" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85001" r:id="rId12" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85002" r:id="rId13" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85002" r:id="rId13" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85003" r:id="rId14" name="_ActiveXWrapper7">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -12214,174 +12622,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="85003" r:id="rId4" name="_ActiveXWrapper7"/>
+        <control shapeId="85003" r:id="rId14" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="85002" r:id="rId6" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
+        <control shapeId="85004" r:id="rId15" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId16">
+            <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85002" r:id="rId6" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85001" r:id="rId7" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85001" r:id="rId7" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84999" r:id="rId8" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84999" r:id="rId8" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84998" r:id="rId9" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84998" r:id="rId9" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84997" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84997" r:id="rId10" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84996" r:id="rId11" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84996" r:id="rId11" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84995" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1533525</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -12389,32 +12647,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="84995" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84993" r:id="rId14" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1524000</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84993" r:id="rId14" name="_ActiveXWrapper1"/>
+        <control shapeId="85004" r:id="rId15" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12426,8 +12659,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12493,7 +12726,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="11"/>
       <c r="O2" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P2" s="35"/>
     </row>
@@ -12642,11 +12875,11 @@
       <c r="E9" s="19"/>
       <c r="F9" s="20"/>
       <c r="K9" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L9" s="20"/>
       <c r="O9" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P9" s="35"/>
     </row>
@@ -14006,7 +14239,7 @@
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B106" s="29">
         <v>0</v>
@@ -14017,7 +14250,7 @@
     </row>
     <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B107" s="29">
         <v>0</v>
@@ -14048,18 +14281,68 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId4" name="_ActiveXWrapper23">
+        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper27">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId6" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId6" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId8" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -14068,23 +14351,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId4" name="_ActiveXWrapper23"/>
+        <control shapeId="1037" r:id="rId8" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId6" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1036" r:id="rId10" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -14093,74 +14376,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId6" name="_ActiveXWrapper22"/>
+        <control shapeId="1036" r:id="rId10" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId8" name="_ActiveXWrapper21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId8" name="_ActiveXWrapper21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId10" name="_ActiveXWrapper20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId10" name="_ActiveXWrapper20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId12" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
@@ -14168,157 +14401,157 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId12" name="_ActiveXWrapper19"/>
+        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId14" name="_ActiveXWrapper18">
+        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8">
           <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId14" name="_ActiveXWrapper18"/>
+        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId16" name="_ActiveXWrapper17">
+        <control shapeId="1033" r:id="rId16" name="_ActiveXWrapper7">
           <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId16" name="_ActiveXWrapper17"/>
+        <control shapeId="1033" r:id="rId16" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId18" name="_ActiveXWrapper16">
+        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper13">
           <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId18" name="_ActiveXWrapper16"/>
+        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId20" name="_ActiveXWrapper15">
+        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>762000</xdr:colOff>
+                <xdr:row>110</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId20" name="_ActiveXWrapper15"/>
+        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper14">
+        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper14"/>
+        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId24" name="_ActiveXWrapper1">
+        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId24" name="_ActiveXWrapper1"/>
+        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14348,169 +14581,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId28" name="_ActiveXWrapper4">
+        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId28" name="_ActiveXWrapper4"/>
+        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId30" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId30" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId32" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>762000</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId32" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId34" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId34" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId36" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId36" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId38" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId38" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId40" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
@@ -14518,23 +14626,198 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId40" name="_ActiveXWrapper9"/>
+        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId42" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
+        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId33" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId34">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId33" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId35" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId35" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId37" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId38">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId37" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId39" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId39" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId41" name="_ActiveXWrapper20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId42">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId41" name="_ActiveXWrapper20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId43" name="_ActiveXWrapper21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId44">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId43" name="_ActiveXWrapper21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId45" name="_ActiveXWrapper22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -14543,23 +14826,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId42" name="_ActiveXWrapper10"/>
+        <control shapeId="1050" r:id="rId45" name="_ActiveXWrapper22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId44" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
+        <control shapeId="1051" r:id="rId47" name="_ActiveXWrapper23">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -14568,57 +14851,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId44" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId46" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId46" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId47" name="_ActiveXWrapper27">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId47" name="_ActiveXWrapper27"/>
+        <control shapeId="1051" r:id="rId47" name="_ActiveXWrapper23"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14677,16 +14910,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="D1" s="75" t="s">
         <v>226</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -14773,22 +15006,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="D1" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="75" t="s">
+      <c r="F1" s="75" t="s">
         <v>228</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -14877,7 +15110,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -14885,230 +15118,230 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B12">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B13">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B14">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B15">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="75" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B16">
         <v>1.5</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" t="s">
         <v>283</v>
-      </c>
-      <c r="H17" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B19" s="76">
         <v>0.01</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B20">
         <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -15125,8 +15358,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="92163" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="92166" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92166" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92165" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92165" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92164" r:id="rId8" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92164" r:id="rId8" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92161" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92161" r:id="rId10" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92162" r:id="rId12" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92162" r:id="rId12" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92163" r:id="rId14" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15145,132 +15503,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="92163" r:id="rId4" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92162" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92162" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92161" r:id="rId8" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92161" r:id="rId8" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92164" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92164" r:id="rId10" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92165" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92165" r:id="rId12" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92166" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92166" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="92163" r:id="rId14" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15298,7 +15531,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -15306,259 +15539,259 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B12">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B13">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B15">
         <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B16">
         <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B17">
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B18">
         <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B21">
         <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B23" s="76">
         <v>0.01</v>
       </c>
       <c r="C23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24">
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -15575,8 +15808,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="96261" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="96262" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96262" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96257" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96257" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96258" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96258" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96259" r:id="rId10" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96259" r:id="rId10" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96260" r:id="rId12" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96260" r:id="rId12" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96261" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -15595,132 +15953,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="96261" r:id="rId4" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96260" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96260" r:id="rId6" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96259" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96259" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96258" r:id="rId9" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96258" r:id="rId9" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96257" r:id="rId11" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96257" r:id="rId11" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96262" r:id="rId13" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96262" r:id="rId13" name="_ActiveXWrapper6"/>
+        <control shapeId="96261" r:id="rId14" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15745,59 +15978,59 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -15809,8 +16042,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="99333" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="99329" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99329" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99330" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99330" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99332" r:id="rId7" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99332" r:id="rId7" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99333" r:id="rId8" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -15829,82 +16137,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="99333" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99332" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99332" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99330" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99330" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99329" r:id="rId9" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99329" r:id="rId9" name="_ActiveXWrapper1"/>
+        <control shapeId="99333" r:id="rId8" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15917,7 +16150,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15927,7 +16160,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -15949,8 +16182,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="126977" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="126977" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="126978" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -15969,32 +16227,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="126977" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="126978" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16035,7 +16268,7 @@
         <v>54</v>
       </c>
       <c r="F1" s="84" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G1" s="85" t="s">
         <v>19</v>
@@ -16046,7 +16279,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F2" s="87" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G2" s="42">
         <v>40</v>
@@ -16057,7 +16290,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="87" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G3" s="42">
         <v>15</v>
@@ -16068,7 +16301,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="87" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G4" s="42">
         <v>1.01325</v>
@@ -16090,7 +16323,7 @@
         <v>150</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -16162,33 +16395,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="D1" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="83" t="s">
-        <v>309</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="E1" s="83" t="s">
+      <c r="G1" s="83" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="H1" s="83" t="s">
         <v>312</v>
-      </c>
-      <c r="G1" s="83" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="83" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B2">
         <v>236.57399902343801</v>
@@ -17391,27 +17624,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="18437" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="18435" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="18437" r:id="rId4" name="_ActiveXWrapper3"/>
+        <control shapeId="18435" r:id="rId4" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -17441,27 +17674,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="18435" r:id="rId8" name="_ActiveXWrapper2">
+        <control shapeId="18437" r:id="rId8" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="18435" r:id="rId8" name="_ActiveXWrapper2"/>
+        <control shapeId="18437" r:id="rId8" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17522,27 +17755,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="25603" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="25602" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1390650</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>1400175</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="25603" r:id="rId4" name="_ActiveXWrapper3"/>
+        <control shapeId="25602" r:id="rId4" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -17572,27 +17805,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="25602" r:id="rId8" name="_ActiveXWrapper2">
+        <control shapeId="25603" r:id="rId8" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1400175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>1390650</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="25602" r:id="rId8" name="_ActiveXWrapper2"/>
+        <control shapeId="25603" r:id="rId8" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17616,12 +17849,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -17637,7 +17870,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -17657,8 +17890,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="53252" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="53251" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53251" r:id="rId4" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53249" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53249" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53250" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1400175</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53250" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53252" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -17677,82 +17985,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="53252" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53250" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1400175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53250" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53249" r:id="rId8" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53249" r:id="rId8" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53251" r:id="rId10" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53251" r:id="rId10" name="_ActiveXWrapper3"/>
+        <control shapeId="53252" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17976,7 +18209,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/NeqSimExcel/NeqSimExcel.xlsx
+++ b/NeqSimExcel/NeqSimExcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="7350" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="7680" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Startup" sheetId="18" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="342">
   <si>
     <t>Component</t>
   </si>
@@ -1188,20 +1188,55 @@
   <si>
     <t>local fluid name</t>
   </si>
+  <si>
+    <t>Fluid description:</t>
+  </si>
+  <si>
+    <t>2,2-dm-C3</t>
+  </si>
+  <si>
+    <t>c-pentane</t>
+  </si>
+  <si>
+    <t>2,2-dm-C4</t>
+  </si>
+  <si>
+    <t>2,3-dm-C4</t>
+  </si>
+  <si>
+    <t>2-m-C5</t>
+  </si>
+  <si>
+    <t>3-m-C5</t>
+  </si>
+  <si>
+    <t>c-heptane</t>
+  </si>
+  <si>
+    <t>c-octane</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1312,6 +1347,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1327,7 +1368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1495,63 +1536,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1571,8 +1631,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1583,38 +1643,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1625,16 +1685,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1651,16 +1711,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="10">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="7"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="8"/>
     <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 3 2" xfId="9"/>
+    <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1708,6 +1808,23 @@
 
 <file path=xl/activeX/activeX100.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E96453F74631944EB14B41B4161216A52F4A4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX101.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -1723,7 +1840,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX102.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1740,7 +1857,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX103.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1757,7 +1874,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX104.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1820,7 +1937,7 @@
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="2593"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2779,6 +2896,23 @@
 
 <file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="77F6236037F06174EFE78B3370EE0157C98377"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2540"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -2794,7 +2928,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2811,7 +2945,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2828,7 +2962,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2841,23 +2975,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F098DB5437383341A839CDE34AC1F7DCFBFA3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1482"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2881,6 +2998,23 @@
 
 <file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F098DB5437383341A839CDE34AC1F7DCFBFA3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1482"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -2896,7 +3030,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2913,7 +3047,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.WebBrowser"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2930,7 +3064,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2947,7 +3081,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2964,7 +3098,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2981,7 +3115,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2998,7 +3132,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3015,29 +3149,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="72271141F7F304743D97A5F1778C4D0587F767"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3071,7 +3188,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3088,6 +3205,23 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="16D4EADA81744B14F1A18BDE1B0C049C53E8A1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -3100,7 +3234,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3117,7 +3251,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3134,7 +3268,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3151,7 +3285,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3168,7 +3302,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3185,7 +3319,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3202,7 +3336,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3214,23 +3348,6 @@
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="236327E5329C47245D52A7AD2D6C7DD86F01C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -3255,6 +3372,23 @@
 
 <file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="236327E5329C47245D52A7AD2D6C7DD86F01C2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -3270,7 +3404,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3287,7 +3421,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3304,7 +3438,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3321,7 +3455,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3338,7 +3472,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3355,7 +3489,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3372,7 +3506,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3389,29 +3523,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX99.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="2954B6DE02D8C324C5629F1E2D3DCBAB99B1C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX99.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E96453F74631944EB14B41B4161216A52F4A4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -5129,6 +5246,68 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>904875</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9223" name="_ActiveXWrapper10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9223"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000007240000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -6275,15 +6454,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6337,14 +6516,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>771525</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6400,13 +6579,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>904875</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6462,13 +6641,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>752475</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>600075</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6524,13 +6703,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>762000</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6833,15 +7012,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47626</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6895,15 +7074,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6957,15 +7136,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7081,15 +7260,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7143,15 +7322,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>704850</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7579,13 +7758,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>590550</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>142876</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>704850</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>9526</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7639,15 +7818,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>542925</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10370,87 +10549,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="63" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="34.28515625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="62" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="63"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
+      <c r="A8" s="65"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="66"/>
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="63" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="67" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="67" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="67" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
+      <c r="A15" s="67"/>
     </row>
     <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
+      <c r="A16" s="67"/>
     </row>
     <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="63" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="67" t="s">
         <v>217</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -10458,101 +10637,101 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="67" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
+      <c r="A22" s="67"/>
     </row>
     <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
+      <c r="A23" s="67"/>
     </row>
     <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="67" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="68" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="67" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
+      <c r="A27" s="67"/>
     </row>
     <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
+      <c r="A28" s="69"/>
     </row>
     <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="67" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="A31" s="67"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="71"/>
+      <c r="A32" s="70"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="67" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="67" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="67" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="71"/>
+      <c r="A37" s="70"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="67" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="72"/>
+      <c r="A39" s="71"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="73" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="73" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="63" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10971,28 +11150,28 @@
     </row>
     <row r="5" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="79"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
     </row>
     <row r="11" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -11213,7 +11392,7 @@
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>173</v>
       </c>
     </row>
@@ -11224,10 +11403,10 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -11236,8 +11415,8 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -11246,8 +11425,8 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -11256,8 +11435,8 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -11266,8 +11445,8 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -11276,11 +11455,11 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="43"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -11289,13 +11468,13 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="47">
         <v>1</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="44" t="s">
         <v>163</v>
       </c>
     </row>
@@ -11306,13 +11485,13 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="49">
         <v>15</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="46" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11331,35 +11510,35 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="43"/>
-      <c r="J11" s="51" t="s">
+      <c r="F11" s="53"/>
+      <c r="G11" s="42"/>
+      <c r="J11" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="43"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="58">
         <f>100-F13-F14</f>
         <v>100</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="47">
         <v>10</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="44" t="s">
         <v>167</v>
       </c>
     </row>
@@ -11370,38 +11549,38 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="47">
         <v>0</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="47">
         <v>1</v>
       </c>
-      <c r="L13" s="45" t="s">
+      <c r="L13" s="44" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="49">
         <v>0</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="45"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -11411,15 +11590,15 @@
         <f>B2+B3+2*B4+2*B5+2*B6+2*B7+2*B8-B9-B10-2*B11-B13</f>
         <v>0</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="62"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="57" t="s">
         <v>174</v>
       </c>
     </row>
@@ -11721,15 +11900,15 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -11737,16 +11916,16 @@
         <v>290</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="94" t="s">
+        <v>333</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>319</v>
-      </c>
+      <c r="D3" s="95"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -11851,6 +12030,31 @@
       </mc:Choice>
       <mc:Fallback>
         <control shapeId="9219" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9223" r:id="rId10" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9223" r:id="rId10" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12118,7 +12322,7 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>203</v>
       </c>
     </row>
@@ -12657,10 +12861,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12701,13 +12905,13 @@
       <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="96">
         <v>0</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="97">
         <v>28.013999999999999</v>
       </c>
       <c r="D2" s="32"/>
@@ -12725,19 +12929,19 @@
       <c r="L2" s="18"/>
       <c r="M2" s="14"/>
       <c r="N2" s="11"/>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="P2" s="35"/>
+      <c r="P2" s="34"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="96">
         <v>0</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="97">
         <v>44.01</v>
       </c>
       <c r="D3" s="32"/>
@@ -12749,17 +12953,17 @@
       <c r="L3" s="23"/>
       <c r="M3" s="20"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="96">
         <v>0</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="97">
         <v>34.08</v>
       </c>
       <c r="D4" s="32"/>
@@ -12773,17 +12977,17 @@
       <c r="L4" s="23"/>
       <c r="M4" s="20"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="37"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="96">
         <v>0</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="97">
         <v>16.042999999999999</v>
       </c>
       <c r="D5" s="32"/>
@@ -12795,17 +12999,17 @@
       <c r="L5" s="23"/>
       <c r="M5" s="20"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="96">
         <v>0</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="97">
         <v>30.07</v>
       </c>
       <c r="D6" s="32"/>
@@ -12817,38 +13021,38 @@
       <c r="L6" s="26"/>
       <c r="M6" s="25"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="37"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="96">
         <v>0</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="97">
         <v>44.097000000000001</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="39"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="96">
         <v>0</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="97">
         <v>58.124000000000002</v>
       </c>
       <c r="D8" s="32"/>
@@ -12862,13 +13066,13 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="96">
         <v>0</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="97">
         <v>58.124000000000002</v>
       </c>
       <c r="D9" s="32"/>
@@ -12878,19 +13082,19 @@
         <v>189</v>
       </c>
       <c r="L9" s="20"/>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="P9" s="35"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="29">
+      <c r="A10" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="96">
         <v>0</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="98">
         <v>72.150999999999996</v>
       </c>
       <c r="D10" s="32"/>
@@ -12900,17 +13104,17 @@
         <v>67</v>
       </c>
       <c r="L10" s="28"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="37"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="36"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="29">
+      <c r="A11" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="96">
         <v>0</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="97">
         <v>72.150999999999996</v>
       </c>
       <c r="D11" s="32"/>
@@ -12926,18 +13130,18 @@
       <c r="L11" s="28">
         <v>5</v>
       </c>
-      <c r="O11" s="36"/>
-      <c r="P11" s="37"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="36"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="29">
+      <c r="A12" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="96">
         <v>0</v>
       </c>
-      <c r="C12" s="33">
-        <v>86.177999999999997</v>
+      <c r="C12" s="97">
+        <v>72.150999999999996</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="27" t="s">
@@ -12952,18 +13156,18 @@
       <c r="L12" s="28">
         <v>100</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="39"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="29">
+      <c r="A13" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="96">
         <v>0</v>
       </c>
-      <c r="C13" s="33">
-        <v>84.161000000000001</v>
+      <c r="C13" s="98">
+        <v>70.135000000000005</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="19"/>
@@ -12972,14 +13176,14 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="A14" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="96">
         <v>0</v>
       </c>
-      <c r="C14" s="33">
-        <v>78.114000000000004</v>
+      <c r="C14" s="98">
+        <v>86.177999999999997</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="24"/>
@@ -12988,40 +13192,40 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="29">
+      <c r="A15" s="96" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="96">
         <v>0</v>
       </c>
-      <c r="C15" s="33">
-        <v>100.205</v>
+      <c r="C15" s="98">
+        <v>86.177999999999997</v>
       </c>
       <c r="D15" s="32"/>
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="29">
+      <c r="A16" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="96">
         <v>0</v>
       </c>
-      <c r="C16" s="33">
-        <v>92.141000000000005</v>
+      <c r="C16" s="98">
+        <v>86.177999999999997</v>
       </c>
       <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="29">
+      <c r="A17" s="96" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="96">
         <v>0</v>
       </c>
-      <c r="C17" s="33">
-        <v>114.232</v>
+      <c r="C17" s="98">
+        <v>86.177999999999997</v>
       </c>
       <c r="D17" s="32"/>
       <c r="H17" s="10" t="s">
@@ -13032,1243 +13236,1339 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="96">
+        <v>0</v>
+      </c>
+      <c r="C18" s="97">
+        <v>86.177999999999997</v>
+      </c>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="96">
+        <v>0</v>
+      </c>
+      <c r="C19" s="97">
+        <v>84.161000000000001</v>
+      </c>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="96">
+        <v>0</v>
+      </c>
+      <c r="C20" s="97">
+        <v>78.114000000000004</v>
+      </c>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="96">
+        <v>0</v>
+      </c>
+      <c r="C21" s="97">
+        <v>100.205</v>
+      </c>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="96">
+        <v>0</v>
+      </c>
+      <c r="C22" s="97">
+        <v>92.141000000000005</v>
+      </c>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="100" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="96">
+        <v>0</v>
+      </c>
+      <c r="C23" s="98">
+        <v>98.188999999999993</v>
+      </c>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="96">
+        <v>0</v>
+      </c>
+      <c r="C24" s="97">
+        <v>114.232</v>
+      </c>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B25" s="96">
         <v>0</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C25" s="99">
         <v>106.17</v>
       </c>
-      <c r="D18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="100" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" s="96">
+        <v>0</v>
+      </c>
+      <c r="C26" s="98">
+        <v>112.21599999999999</v>
+      </c>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B27" s="96">
         <v>0</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C27" s="97">
         <v>128.25800000000001</v>
       </c>
-      <c r="D19" s="32"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B28" s="96">
         <v>0</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C28" s="97">
         <v>142.285</v>
       </c>
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="29">
-        <v>0</v>
-      </c>
-      <c r="C21" s="29">
-        <v>86.17</v>
-      </c>
-      <c r="D21" s="29">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="29">
-        <v>0</v>
-      </c>
-      <c r="C22" s="29">
-        <v>96</v>
-      </c>
-      <c r="D22" s="29">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="29">
-        <v>0</v>
-      </c>
-      <c r="C23" s="29">
-        <v>107</v>
-      </c>
-      <c r="D23" s="29">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="29">
-        <v>0</v>
-      </c>
-      <c r="C24" s="29">
-        <v>121</v>
-      </c>
-      <c r="D24" s="29">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="29">
-        <v>0</v>
-      </c>
-      <c r="C25" s="29">
-        <v>134</v>
-      </c>
-      <c r="D25">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="29">
-        <v>0</v>
-      </c>
-      <c r="C26" s="29">
-        <v>147</v>
-      </c>
-      <c r="D26" s="29">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="29">
-        <v>0</v>
-      </c>
-      <c r="C27" s="29">
-        <v>161</v>
-      </c>
-      <c r="D27" s="29">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="29">
-        <v>0</v>
-      </c>
-      <c r="C28" s="29">
-        <v>175</v>
-      </c>
-      <c r="D28" s="29">
-        <v>0.83</v>
-      </c>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B29" s="29">
         <v>0</v>
       </c>
       <c r="C29" s="29">
-        <v>190</v>
+        <v>86.17</v>
       </c>
       <c r="D29" s="29">
-        <v>0.84</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B30" s="29">
         <v>0</v>
       </c>
       <c r="C30" s="29">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="D30" s="29">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B31" s="29">
         <v>0</v>
       </c>
       <c r="C31" s="29">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="D31" s="29">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B32" s="29">
         <v>0</v>
       </c>
       <c r="C32" s="29">
-        <v>237</v>
+        <v>121</v>
       </c>
       <c r="D32" s="29">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B33" s="29">
         <v>0</v>
       </c>
       <c r="C33" s="29">
-        <v>251</v>
-      </c>
-      <c r="D33" s="29">
-        <v>0.85</v>
+        <v>134</v>
+      </c>
+      <c r="D33">
+        <v>0.79</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B34" s="29">
         <v>0</v>
       </c>
       <c r="C34" s="29">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="D34" s="29">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B35" s="29">
         <v>0</v>
       </c>
       <c r="C35" s="29">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="D35" s="29">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B36" s="29">
         <v>0</v>
       </c>
-      <c r="C36" s="31">
-        <v>291</v>
-      </c>
-      <c r="D36" s="31">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="29">
+        <v>175</v>
+      </c>
+      <c r="D36" s="29">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B37" s="29">
         <v>0</v>
       </c>
-      <c r="C37" s="31">
-        <v>305</v>
-      </c>
-      <c r="D37" s="31">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="29">
+        <v>190</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B38" s="29">
         <v>0</v>
       </c>
-      <c r="C38" s="31">
-        <v>318</v>
-      </c>
-      <c r="D38" s="31">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="29">
+        <v>206</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B39" s="29">
         <v>0</v>
       </c>
-      <c r="C39" s="31">
-        <v>331</v>
-      </c>
-      <c r="D39" s="31">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="29">
+        <v>222</v>
+      </c>
+      <c r="D39" s="29">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B40" s="29">
         <v>0</v>
       </c>
-      <c r="C40" s="31">
-        <v>345</v>
-      </c>
-      <c r="D40" s="31">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="29">
+        <v>237</v>
+      </c>
+      <c r="D40" s="29">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B41" s="29">
         <v>0</v>
       </c>
-      <c r="C41" s="31">
-        <v>359</v>
-      </c>
-      <c r="D41" s="31">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="29">
+        <v>251</v>
+      </c>
+      <c r="D41" s="29">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B42" s="29">
         <v>0</v>
       </c>
-      <c r="C42" s="31">
-        <v>374</v>
-      </c>
-      <c r="D42" s="31">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="29">
+        <v>263</v>
+      </c>
+      <c r="D42" s="29">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B43" s="29">
         <v>0</v>
       </c>
-      <c r="C43" s="31">
-        <v>388</v>
-      </c>
-      <c r="D43" s="31">
-        <v>0.9</v>
+      <c r="C43" s="29">
+        <v>275</v>
+      </c>
+      <c r="D43" s="29">
+        <v>0.86</v>
       </c>
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B44" s="29">
         <v>0</v>
       </c>
       <c r="C44" s="31">
-        <v>402</v>
+        <v>291</v>
       </c>
       <c r="D44" s="31">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B45" s="29">
         <v>0</v>
       </c>
       <c r="C45" s="31">
-        <v>416</v>
+        <v>305</v>
       </c>
       <c r="D45" s="31">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B46" s="29">
         <v>0</v>
       </c>
       <c r="C46" s="31">
-        <v>430</v>
+        <v>318</v>
       </c>
       <c r="D46" s="31">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B47" s="29">
         <v>0</v>
       </c>
       <c r="C47" s="31">
-        <v>444</v>
+        <v>331</v>
       </c>
       <c r="D47" s="31">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B48" s="29">
         <v>0</v>
       </c>
       <c r="C48" s="31">
-        <v>458</v>
+        <v>345</v>
       </c>
       <c r="D48" s="31">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B49" s="29">
         <v>0</v>
       </c>
       <c r="C49" s="31">
-        <v>472</v>
+        <v>359</v>
       </c>
       <c r="D49" s="31">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B50" s="29">
         <v>0</v>
       </c>
       <c r="C50" s="31">
-        <v>486</v>
+        <v>374</v>
       </c>
       <c r="D50" s="31">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B51" s="29">
         <v>0</v>
       </c>
       <c r="C51" s="31">
-        <v>500</v>
+        <v>388</v>
       </c>
       <c r="D51" s="31">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B52" s="29">
         <v>0</v>
       </c>
       <c r="C52" s="31">
-        <v>514</v>
+        <v>402</v>
       </c>
       <c r="D52" s="31">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B53" s="29">
         <v>0</v>
       </c>
       <c r="C53" s="31">
-        <v>528</v>
+        <v>416</v>
       </c>
       <c r="D53" s="31">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B54" s="29">
         <v>0</v>
       </c>
       <c r="C54" s="31">
-        <v>542</v>
+        <v>430</v>
       </c>
       <c r="D54" s="31">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B55" s="29">
         <v>0</v>
       </c>
       <c r="C55" s="31">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="D55" s="31">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B56" s="29">
         <v>0</v>
       </c>
       <c r="C56" s="31">
-        <v>570</v>
+        <v>458</v>
       </c>
       <c r="D56" s="31">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B57" s="29">
         <v>0</v>
       </c>
       <c r="C57" s="31">
-        <v>584</v>
+        <v>472</v>
       </c>
       <c r="D57" s="31">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B58" s="29">
         <v>0</v>
       </c>
       <c r="C58" s="31">
-        <v>598</v>
+        <v>486</v>
       </c>
       <c r="D58" s="31">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B59" s="29">
         <v>0</v>
       </c>
       <c r="C59" s="31">
-        <v>612</v>
+        <v>500</v>
       </c>
       <c r="D59" s="31">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B60" s="29">
         <v>0</v>
       </c>
       <c r="C60" s="31">
-        <v>626</v>
+        <v>514</v>
       </c>
       <c r="D60" s="31">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B61" s="29">
         <v>0</v>
       </c>
       <c r="C61" s="31">
-        <v>640</v>
+        <v>528</v>
       </c>
       <c r="D61" s="31">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B62" s="29">
         <v>0</v>
       </c>
       <c r="C62" s="31">
-        <v>654</v>
+        <v>542</v>
       </c>
       <c r="D62" s="31">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B63" s="29">
         <v>0</v>
       </c>
       <c r="C63" s="31">
-        <v>668</v>
+        <v>556</v>
       </c>
       <c r="D63" s="31">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B64" s="29">
         <v>0</v>
       </c>
       <c r="C64" s="31">
-        <v>682</v>
+        <v>570</v>
       </c>
       <c r="D64" s="31">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B65" s="29">
         <v>0</v>
       </c>
       <c r="C65" s="31">
-        <v>696</v>
+        <v>584</v>
       </c>
       <c r="D65" s="31">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B66" s="29">
         <v>0</v>
       </c>
       <c r="C66" s="31">
-        <v>710</v>
+        <v>598</v>
       </c>
       <c r="D66" s="31">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B67" s="29">
         <v>0</v>
       </c>
       <c r="C67" s="31">
-        <v>724</v>
+        <v>612</v>
       </c>
       <c r="D67" s="31">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B68" s="29">
         <v>0</v>
       </c>
       <c r="C68" s="31">
-        <v>738</v>
+        <v>626</v>
       </c>
       <c r="D68" s="31">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B69" s="29">
         <v>0</v>
       </c>
       <c r="C69" s="31">
-        <v>752</v>
+        <v>640</v>
       </c>
       <c r="D69" s="31">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B70" s="29">
         <v>0</v>
       </c>
       <c r="C70" s="31">
-        <v>766</v>
+        <v>654</v>
       </c>
       <c r="D70" s="31">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B71" s="29">
         <v>0</v>
       </c>
       <c r="C71" s="31">
-        <v>780</v>
+        <v>668</v>
       </c>
       <c r="D71" s="31">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B72" s="29">
         <v>0</v>
       </c>
       <c r="C72" s="31">
-        <v>794</v>
+        <v>682</v>
       </c>
       <c r="D72" s="31">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B73" s="29">
         <v>0</v>
       </c>
       <c r="C73" s="31">
-        <v>808</v>
+        <v>696</v>
       </c>
       <c r="D73" s="31">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B74" s="29">
         <v>0</v>
       </c>
       <c r="C74" s="31">
-        <v>822</v>
+        <v>710</v>
       </c>
       <c r="D74" s="31">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B75" s="29">
         <v>0</v>
       </c>
       <c r="C75" s="31">
-        <v>836</v>
+        <v>724</v>
       </c>
       <c r="D75" s="31">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B76" s="29">
         <v>0</v>
       </c>
       <c r="C76" s="31">
-        <v>850</v>
+        <v>738</v>
       </c>
       <c r="D76" s="31">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B77" s="29">
         <v>0</v>
       </c>
       <c r="C77" s="31">
-        <v>864</v>
+        <v>752</v>
       </c>
       <c r="D77" s="31">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B78" s="29">
         <v>0</v>
       </c>
       <c r="C78" s="31">
-        <v>878</v>
+        <v>766</v>
       </c>
       <c r="D78" s="31">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B79" s="29">
         <v>0</v>
       </c>
       <c r="C79" s="31">
-        <v>892</v>
+        <v>780</v>
       </c>
       <c r="D79" s="31">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B80" s="29">
         <v>0</v>
       </c>
       <c r="C80" s="31">
-        <v>906</v>
+        <v>794</v>
       </c>
       <c r="D80" s="31">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B81" s="29">
         <v>0</v>
       </c>
       <c r="C81" s="31">
-        <v>920</v>
+        <v>808</v>
       </c>
       <c r="D81" s="31">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B82" s="29">
         <v>0</v>
       </c>
       <c r="C82" s="31">
-        <v>934</v>
+        <v>822</v>
       </c>
       <c r="D82" s="31">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B83" s="29">
         <v>0</v>
       </c>
       <c r="C83" s="31">
-        <v>948</v>
+        <v>836</v>
       </c>
       <c r="D83" s="31">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B84" s="29">
         <v>0</v>
       </c>
       <c r="C84" s="31">
-        <v>962</v>
+        <v>850</v>
       </c>
       <c r="D84" s="31">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B85" s="29">
         <v>0</v>
       </c>
       <c r="C85" s="31">
-        <v>976</v>
+        <v>864</v>
       </c>
       <c r="D85" s="31">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B86" s="29">
         <v>0</v>
       </c>
       <c r="C86" s="31">
-        <v>990</v>
+        <v>878</v>
       </c>
       <c r="D86" s="31">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B87" s="29">
         <v>0</v>
       </c>
       <c r="C87" s="31">
-        <v>1004</v>
+        <v>892</v>
       </c>
       <c r="D87" s="31">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B88" s="29">
         <v>0</v>
       </c>
       <c r="C88" s="31">
-        <v>1018</v>
+        <v>906</v>
       </c>
       <c r="D88" s="31">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B89" s="29">
         <v>0</v>
       </c>
       <c r="C89" s="31">
-        <v>1032</v>
+        <v>920</v>
       </c>
       <c r="D89" s="31">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B90" s="29">
         <v>0</v>
       </c>
       <c r="C90" s="31">
-        <v>1046</v>
+        <v>934</v>
       </c>
       <c r="D90" s="31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B91" s="29">
         <v>0</v>
       </c>
       <c r="C91" s="31">
-        <v>1060</v>
+        <v>948</v>
       </c>
       <c r="D91" s="31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B92" s="29">
         <v>0</v>
       </c>
       <c r="C92" s="31">
-        <v>1074</v>
+        <v>962</v>
       </c>
       <c r="D92" s="31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B93" s="29">
         <v>0</v>
       </c>
       <c r="C93" s="31">
-        <v>1088</v>
+        <v>976</v>
       </c>
       <c r="D93" s="31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B94" s="29">
         <v>0</v>
       </c>
       <c r="C94" s="31">
-        <v>1102</v>
+        <v>990</v>
       </c>
       <c r="D94" s="31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B95" s="29">
         <v>0</v>
       </c>
       <c r="C95" s="31">
-        <v>1116</v>
+        <v>1004</v>
       </c>
       <c r="D95" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="B96" s="29">
         <v>0</v>
       </c>
       <c r="C96" s="31">
-        <v>18.02</v>
-      </c>
-      <c r="D96" s="29"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1018</v>
+      </c>
+      <c r="D96" s="31">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B97" s="29">
         <v>0</v>
       </c>
       <c r="C97" s="31">
-        <v>32.042000000000002</v>
-      </c>
-      <c r="D97" s="29"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1032</v>
+      </c>
+      <c r="D97" s="31">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B98" s="29">
         <v>0</v>
       </c>
       <c r="C98" s="31">
-        <v>46.069220000000001</v>
-      </c>
-      <c r="D98" s="29"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1046</v>
+      </c>
+      <c r="D98" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="B99" s="29">
         <v>0</v>
       </c>
       <c r="C99" s="31">
-        <v>62.069000000000003</v>
-      </c>
-      <c r="D99" s="29"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1060</v>
+      </c>
+      <c r="D99" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B100" s="29">
         <v>0</v>
       </c>
       <c r="C100" s="31">
-        <v>150.17500000000001</v>
-      </c>
-      <c r="D100" s="29"/>
+        <v>1074</v>
+      </c>
+      <c r="D100" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B101" s="29">
         <v>0</v>
       </c>
       <c r="C101" s="31">
-        <v>31.998999999999999</v>
-      </c>
-      <c r="D101" s="29"/>
+        <v>1088</v>
+      </c>
+      <c r="D101" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B102" s="29">
         <v>0</v>
       </c>
       <c r="C102" s="31">
-        <v>2.016</v>
-      </c>
-      <c r="D102" s="29"/>
+        <v>1102</v>
+      </c>
+      <c r="D102" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B103" s="29">
         <v>0</v>
       </c>
       <c r="C103" s="31">
-        <v>39.948</v>
-      </c>
-      <c r="D103" s="29"/>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>1116</v>
+      </c>
+      <c r="D103" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="B104" s="29">
         <v>0</v>
       </c>
       <c r="C104" s="31">
-        <v>4.0030000000000001</v>
+        <v>18.02</v>
       </c>
       <c r="D104" s="29"/>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="B105" s="29">
         <v>0</v>
       </c>
       <c r="C105" s="31">
-        <v>200.6</v>
+        <v>32.042000000000002</v>
       </c>
       <c r="D105" s="29"/>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="B106" s="29">
         <v>0</v>
       </c>
       <c r="C106" s="31">
-        <v>256.48</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>46.069220000000001</v>
+      </c>
+      <c r="D106" s="29"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="B107" s="29">
         <v>0</v>
       </c>
       <c r="C107" s="31">
+        <v>62.069000000000003</v>
+      </c>
+      <c r="D107" s="29"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="29">
+        <v>0</v>
+      </c>
+      <c r="C108" s="31">
+        <v>150.17500000000001</v>
+      </c>
+      <c r="D108" s="29"/>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="29">
+        <v>0</v>
+      </c>
+      <c r="C109" s="31">
+        <v>31.998999999999999</v>
+      </c>
+      <c r="D109" s="29"/>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="29">
+        <v>0</v>
+      </c>
+      <c r="C110" s="31">
+        <v>2.016</v>
+      </c>
+      <c r="D110" s="29"/>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" s="29">
+        <v>0</v>
+      </c>
+      <c r="C111" s="31">
+        <v>39.948</v>
+      </c>
+      <c r="D111" s="29"/>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="29">
+        <v>0</v>
+      </c>
+      <c r="C112" s="31">
+        <v>4.0030000000000001</v>
+      </c>
+      <c r="D112" s="29"/>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="29">
+        <v>0</v>
+      </c>
+      <c r="C113" s="31">
+        <v>200.6</v>
+      </c>
+      <c r="D113" s="29"/>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B114" s="29">
+        <v>0</v>
+      </c>
+      <c r="C114" s="31">
+        <v>256.48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B115" s="29">
+        <v>0</v>
+      </c>
+      <c r="C115" s="31">
         <v>119.16</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B108" s="12">
-        <f>SUM(B2:B107)</f>
+      <c r="B116" s="12">
+        <f>SUM(B2:B115)</f>
         <v>0</v>
       </c>
-      <c r="C108" s="7" t="e">
-        <f>SUMPRODUCT(B2:B105,C2:C105)/B108</f>
+      <c r="C116" s="7" t="e">
+        <f>SUMPRODUCT(B2:B113,C2:C113)/B116</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14311,15 +14611,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14336,15 +14636,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14361,15 +14661,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14487,13 +14787,13 @@
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>762000</xdr:colOff>
-                <xdr:row>110</xdr:row>
+                <xdr:row>118</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
@@ -14512,13 +14812,13 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>110</xdr:row>
+                <xdr:row>118</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
@@ -14537,13 +14837,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>110</xdr:row>
+                <xdr:row>118</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
@@ -14561,14 +14861,14 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>110</xdr:row>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>118</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>771525</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:colOff>800100</xdr:colOff>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
@@ -14586,15 +14886,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14611,15 +14911,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14636,15 +14936,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:colOff>704850</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14836,15 +15136,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:colOff>542925</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14901,46 +15201,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="74" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:4" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="75">
+      <c r="A2" s="74">
         <v>50</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="74">
         <v>25</v>
       </c>
-      <c r="C2" s="75">
+      <c r="C2" s="74">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="75">
+      <c r="A3" s="74">
         <v>30</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="74">
         <v>25</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="74">
         <v>25</v>
       </c>
     </row>
@@ -15005,50 +15305,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="74" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="75">
+      <c r="A2" s="74">
         <v>20</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="74">
         <v>25</v>
       </c>
-      <c r="C2" s="75">
+      <c r="C2" s="74">
         <v>30</v>
       </c>
-      <c r="D2" s="75">
+      <c r="D2" s="74">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="75">
+      <c r="A3" s="74">
         <v>30</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="74">
         <v>25</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="74">
         <v>40</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="74">
         <v>80</v>
       </c>
     </row>
@@ -15270,7 +15570,7 @@
       <c r="C15" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="74" t="s">
         <v>286</v>
       </c>
     </row>
@@ -15320,7 +15620,7 @@
       <c r="A19" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="75">
         <v>0.01</v>
       </c>
       <c r="C19" t="s">
@@ -15776,7 +16076,7 @@
       <c r="A23" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="75">
         <v>0.01</v>
       </c>
       <c r="C23" t="s">
@@ -16267,79 +16567,79 @@
       <c r="D1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="85" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="86" t="s">
         <v>325</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="41">
         <v>40</v>
       </c>
-      <c r="H2" s="88">
+      <c r="H2" s="87">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>15</v>
       </c>
-      <c r="H3" s="88">
+      <c r="H3" s="87">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="86" t="s">
         <v>327</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>1.01325</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="87">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F5" s="87"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="88"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="87"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>150</v>
       </c>
-      <c r="H6" s="90" t="s">
+      <c r="H6" s="89" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F7" s="91"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="88"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="87"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F8" s="91"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="88"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="87"/>
     </row>
     <row r="9" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -16397,25 +16697,25 @@
       <c r="A1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="82" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="82" t="s">
         <v>310</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="82" t="s">
         <v>311</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="82" t="s">
         <v>312</v>
       </c>
     </row>
@@ -18032,46 +18332,46 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -18196,7 +18496,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/NeqSimExcel/NeqSimExcel.xlsx
+++ b/NeqSimExcel/NeqSimExcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="7680" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="6945" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Startup" sheetId="18" r:id="rId1"/>
@@ -1564,7 +1564,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1712,7 +1712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
@@ -1777,7 +1776,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9557596019B87C9421C9861D9735F45E400699"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8A3FA4ADB8327F840398B9C58ACE605A52B4D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1791,17 +1790,17 @@
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D2E9956B12741147DD1A3DF1201F2754A13C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="204D97F042C4FD24B3E2904A251AE0D274D8F2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3572"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1811,7 +1810,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E96453F74631944EB14B41B4161216A52F4A4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2954B6DE02D8C324C5629F1E2D3DCBAB99B1C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1825,22 +1824,39 @@
 
 <file path=xl/activeX/activeX101.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5444E502D5E8AC544475A18758CA96B2F793D5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BD9DA6BF17560145B618E451B052818D43BF1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX102.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28C3B6D13208972429F293A32C2113DBFA4122"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX103.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1853,23 +1869,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4022"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX103.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28C3B6D13208972429F293A32C2113DBFA4122"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1893,10 +1892,146 @@
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="291D019922DD0C241822A1892E3343DA966B02"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="277E7FC0E21783246212B58B2585CA2DA9FA62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="27563C9BF25B55242AF2B7762A82920C774BC2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1058"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="226259A8A2EDB22432E2A3D52F494200BC9342"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24048C03D29F45243022A2762251F47955D4B2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23A4DCD2324F1824D612809F27465A32D2B212"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1EAAA176C1AC7514C061868B15C05B5B35E0B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4868"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="11F29B8CD1F51914BFA19C4D1DC2D2C131B9A1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1994EA02812BDD14C0B1A8FB1F4B95D2BB2B01"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="11D1A8EB214D8514C5B1A3D31F8935F5091591"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1908,155 +2043,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="14D36455D191EC140E31BD561E321CC6D7B5F1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="706FBF5B478C737424A79DC37BF150F4394617"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="184F374311CE991474D19A171449FEEFEF1BE1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2593"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1029F6A33115A9145641BB711EAF71403AF5C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2831"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19357786F1D686149141A459153C0DF2C0F0C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="99E80A20B9DC9A94CD39B2759AD8F94B050069"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8578E6734835BB84C2D886DE8DC04D61281918"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="73EBFB3597D7A37487A7B6FB76FEE3F98877F7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6CA29245266C5564D8069D6065AE9EF09F4DA6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E5B9BBE8412A74438348D73466C7B25D11C64"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2066,14 +2065,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="59D3618C85F26C547E558CA85FE14EE2FCF4E5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DB16E32A2195924F98291032DA20708D53D52"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2100,14 +2099,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DB16E32A2195924F98291032DA20708D53D52"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="59D3618C85F26C547E558CA85FE14EE2FCF4E5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2117,7 +2116,160 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="11D1A8EB214D8514C5B1A3D31F8935F5091591"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6CA29245266C5564D8069D6065AE9EF09F4DA6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="73EBFB3597D7A37487A7B6FB76FEE3F98877F7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8578E6734835BB84C2D886DE8DC04D61281918"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="99E80A20B9DC9A94CD39B2759AD8F94B050069"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19357786F1D686149141A459153C0DF2C0F0C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.RadioButton"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1029F6A33115A9145641BB711EAF71403AF5C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2831"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="184F374311CE991474D19A171449FEEFEF1BE1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2593"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6B08B159D6E53F648BE6AB476A6A21F0393306"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4180"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="14D36455D191EC140E31BD561E321CC6D7B5F1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1994EA02812BDD14C0B1A8FB1F4B95D2BB2B01"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2129,172 +2281,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="11F29B8CD1F51914BFA19C4D1DC2D2C131B9A1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D2E9956B12741147DD1A3DF1201F2754A13C1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3572"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1EAAA176C1AC7514C061868B15C05B5B35E0B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4868"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23A4DCD2324F1824D612809F27465A32D2B212"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24048C03D29F45243022A2762251F47955D4B2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="226259A8A2EDB22432E2A3D52F494200BC9342"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="27563C9BF25B55242AF2B7762A82920C774BC2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1058"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39A3F493A352D5348B438D913B90F58B426BC3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4101"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="277E7FC0E21783246212B58B2585CA2DA9FA62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="291D019922DD0C241822A1892E3343DA966B02"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="204D97F042C4FD24B3E2904A251AE0D274D8F2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2321,14 +2320,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="37857E2343FB4934B553A56F368F43A15B3AB3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F4EE65745F4C554DCF5A3EE5437C15E8CD915"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3387"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2355,14 +2354,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F4EE65745F4C554DCF5A3EE5437C15E8CD915"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="37857E2343FB4934B553A56F368F43A15B3AB3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3387"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2372,13 +2371,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28549ED09299EE2466728BB6292BFE182B7EE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F5F3C9513E194340A93A9B531639868C9D723"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2406,13 +2405,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F5F3C9513E194340A93A9B531639868C9D723"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28549ED09299EE2466728BB6292BFE182B7EE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2423,36 +2422,53 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2B53EE6D22AEC9248F22BC5F26474D9931F682"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="536869FBA5AFBC541C05ACE056E3A30047B075"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33B5BBEA4343E7340D139D033749854DB8E273"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4AC25C6F74961A44EB749A1D4048EBA4719A64"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23F7A02EB2EC72247C62B9D8298BDECF005962"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2469,36 +2485,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23F7A02EB2EC72247C62B9D8298BDECF005962"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33B5BBEA4343E7340D139D033749854DB8E273"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4AC25C6F74961A44EB749A1D4048EBA4719A64"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2302"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2556,6 +2555,23 @@
 
 <file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="273BB633F2A10E2448A2B2692559D6AB9253D2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -2571,36 +2587,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="273BB633F2A10E2448A2B2692559D6AB9253D2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E6539469408FF44F5948BFE493D2EB5B2C1B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19683156C1FE8B14D2D1A5A11BCC31A74119F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2627,6 +2626,23 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="314817F8E3E88634747381F033271250FE3AE3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="201595F032C9E1246142AA9926B9A0F8314D62"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -2639,36 +2655,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="314817F8E3E88634747381F033271250FE3AE3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19683156C1FE8B14D2D1A5A11BCC31A74119F1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E6539469408FF44F5948BFE493D2EB5B2C1B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2692,34 +2691,34 @@
 
 <file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5CCBA167151AE954A025B3DF5775A9B1B1F6A5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F64E731D4CE1B44245494D14C9683B0E34414"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F8DAF2FC19C611407D190CE1A7C44D8C1DCF1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="31F1D43EB326C134DB73A8F838B2A3B7823803"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2743,51 +2742,51 @@
 
 <file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="31F1D43EB326C134DB73A8F838B2A3B7823803"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F8DAF2FC19C611407D190CE1A7C44D8C1DCF1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F64E731D4CE1B44245494D14C9683B0E34414"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5CCBA167151AE954A025B3DF5775A9B1B1F6A5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2514"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F45B05E942B1144CB74A9F6400897F07D4DE4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1277BE43C1DAC91410B1BA171ABFF711188D21"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1588"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2797,14 +2796,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="536869FBA5AFBC541C05ACE056E3A30047B075"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2B53EE6D22AEC9248F22BC5F26474D9931F682"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2828,22 +2827,73 @@
 
 <file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1277BE43C1DAC91410B1BA171ABFF711188D21"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F45B05E942B1144CB74A9F6400897F07D4DE4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1588"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="77F6236037F06174EFE78B3370EE0157C98377"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2540"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33305FF99385AA345543A7693D4A13F145DD43"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3625"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C0DC5E324872344D014B8804DE43BB805D3F4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2860,58 +2910,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C0DC5E324872344D014B8804DE43BB805D3F4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DE31B0B627102248E12810C21BF99F709A3D2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33305FF99385AA345543A7693D4A13F145DD43"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3625"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="77F6236037F06174EFE78B3370EE0157C98377"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2540"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2928,53 +2944,36 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DE31B0B627102248E12810C21BF99F709A3D2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17A43E074162A2147ED1B3F91ADBE24223ADC1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="550AA336554E21545B259DBA51805BC9CD7805"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="401F28DAB42B9544FFF4A9CC4B49A9EF053184"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="203310F762F6B524A0B2B83621DE236AA6F882"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2984,14 +2983,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6B08B159D6E53F648BE6AB476A6A21F0393306"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39A3F493A352D5348B438D913B90F58B426BC3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4180"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4101"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3015,34 +3014,34 @@
 
 <file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="203310F762F6B524A0B2B83621DE236AA6F882"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="401F28DAB42B9544FFF4A9CC4B49A9EF053184"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17A43E074162A2147ED1B3F91ADBE24223ADC1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="550AA336554E21545B259DBA51805BC9CD7805"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3066,10 +3065,27 @@
 
 <file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1DBCC408B1A98414DB418B8514B308F95DA541"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2699"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CFED2BE119AE914D4C1BB4319AF98EDDC6301"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16D4EADA81744B14F1A18BDE1B0C049C53E8A1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3081,7 +3097,126 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="72271141F7F304743D97A5F1778C4D0587F767"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="67A6C00D6687E26475C6958E6D14CE9EE21C16"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E5B9BBE8412A74438348D73466C7B25D11C64"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5C510AE1455D9F542EA587FD5E4EC14F5269B5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="430516B774B476446064AB84455C95B7BAC694"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3098,12 +3233,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="430516B774B476446064AB84455C95B7BAC694"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CFED2BE119AE914D4C1BB4319AF98EDDC6301"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3111,142 +3246,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5C510AE1455D9F542EA587FD5E4EC14F5269B5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="67A6C00D6687E26475C6958E6D14CE9EE21C16"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="72271141F7F304743D97A5F1778C4D0587F767"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="706FBF5B478C737424A79DC37BF150F4394617"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9E13BA6D292D4B946339B3CE90165787BA7C39"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="13E1C5BA71AC7C14A361AD7410D08BDB74F5C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="16D4EADA81744B14F1A18BDE1B0C049C53E8A1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4207"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1DBCC408B1A98414DB418B8514B308F95DA541"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2699"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3290,19 +3289,87 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6152E46166DF4B643BD68A046FDB6C8411D1B6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="357B2A79332498347F03B20031F8F571CF0933"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="236327E5329C47245D52A7AD2D6C7DD86F01C2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1633AAB911554C142501BF9817820FBE6FEDA1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E43028E041544444F74A6C94396E211329D04"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9557596019B87C9421C9861D9735F45E400699"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3319,12 +3386,46 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6152E46166DF4B643BD68A046FDB6C8411D1B6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="53A1C41F059FDB54CBA58BFE5A4C386E5C5075"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E43028E041544444F74A6C94396E211329D04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C9459A6C4C41B44E214B19F489A41B8FDE2B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3336,12 +3437,46 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3B7CE220A34E453492C39F323642F8E458B603"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FA0185362EB642483C28B0C2E919634E93C32"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1633AAB911554C142501BF9817820FBE6FEDA1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F62FABC01C0701401A183A71A107BBBBCD3B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3353,58 +3488,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.CheckBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8A3FA4ADB8327F840398B9C58ACE605A52B4D8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="236327E5329C47245D52A7AD2D6C7DD86F01C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="357B2A79332498347F03B20031F8F571CF0933"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -3421,104 +3505,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F62FABC01C0701401A183A71A107BBBBCD3B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5444E502D5E8AC544475A18758CA96B2F793D5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FA0185362EB642483C28B0C2E919634E93C32"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3B7CE220A34E453492C39F323642F8E458B603"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C9459A6C4C41B44E214B19F489A41B8FDE2B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3493"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.LinkLabel"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="53A1C41F059FDB54CBA58BFE5A4C386E5C5075"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2011"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BD9DA6BF17560145B618E451B052818D43BF1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3528,7 +3527,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2954B6DE02D8C324C5629F1E2D3DCBAB99B1C2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E96453F74631944EB14B41B4161216A52F4A4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -7014,13 +7013,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>361950</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>47626</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7758,13 +7757,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>590550</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>142876</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>704850</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9526</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10773,18 +10772,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66569" r:id="rId5" name="_ActiveXWrapper9">
+        <control shapeId="66568" r:id="rId5" name="_ActiveXWrapper8">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="66568" r:id="rId5" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="66567" r:id="rId7" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1962150</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10793,49 +10817,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66569" r:id="rId5" name="_ActiveXWrapper9"/>
+        <control shapeId="66567" r:id="rId7" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66564" r:id="rId7" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+        <control shapeId="66566" r:id="rId9" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>1866900</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66564" r:id="rId7" name="_ActiveXWrapper4"/>
+        <control shapeId="66566" r:id="rId9" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66563" r:id="rId9" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+        <control shapeId="66565" r:id="rId11" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1838325</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:colOff>2057400</xdr:colOff>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10843,32 +10867,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66563" r:id="rId9" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="66562" r:id="rId11" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1943100</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="66562" r:id="rId11" name="_ActiveXWrapper2"/>
+        <control shapeId="66565" r:id="rId11" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10898,19 +10897,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66565" r:id="rId15" name="_ActiveXWrapper5">
+        <control shapeId="66562" r:id="rId15" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>2057400</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:colOff>1943100</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="66562" r:id="rId15" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="66563" r:id="rId17" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1838325</xdr:colOff>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10918,48 +10942,48 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66565" r:id="rId15" name="_ActiveXWrapper5"/>
+        <control shapeId="66563" r:id="rId17" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66566" r:id="rId17" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+        <control shapeId="66564" r:id="rId19" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1866900</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66566" r:id="rId17" name="_ActiveXWrapper6"/>
+        <control shapeId="66564" r:id="rId19" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="66567" r:id="rId19" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+        <control shapeId="66569" r:id="rId21" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1962150</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10968,32 +10992,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="66567" r:id="rId19" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="66568" r:id="rId21" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="66568" r:id="rId21" name="_ActiveXWrapper8"/>
+        <control shapeId="66569" r:id="rId21" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11055,8 +11054,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37889" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="37890" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="37890" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="37889" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -11075,32 +11099,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37889" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="37890" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="37890" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="37889" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11192,8 +11191,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="8196" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8196" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8195" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8195" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8194" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8194" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8193" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -11212,82 +11286,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="8193" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11616,52 +11615,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48133" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="48132" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48133" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="48132" r:id="rId4" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48129" r:id="rId6" name="_ActiveXWrapper1">
+        <control shapeId="48131" r:id="rId6" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48129" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="48131" r:id="rId6" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11691,52 +11690,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48131" r:id="rId10" name="_ActiveXWrapper3">
+        <control shapeId="48129" r:id="rId10" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48131" r:id="rId10" name="_ActiveXWrapper3"/>
+        <control shapeId="48129" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="48132" r:id="rId12" name="_ActiveXWrapper4">
+        <control shapeId="48133" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1038225</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="48132" r:id="rId12" name="_ActiveXWrapper4"/>
+        <control shapeId="48133" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11818,27 +11817,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44036" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="44033" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44036" r:id="rId4" name="_ActiveXWrapper3"/>
+        <control shapeId="44033" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11868,27 +11867,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId8" name="_ActiveXWrapper1">
+        <control shapeId="44036" r:id="rId8" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId8" name="_ActiveXWrapper1"/>
+        <control shapeId="44036" r:id="rId8" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11900,8 +11899,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11925,7 +11924,7 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="95"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -11959,8 +11958,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9222" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="9223" r:id="rId4" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9223" r:id="rId4" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9219" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9219" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9220" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>809625</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9220" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9222" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -11979,82 +12053,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9222" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9220" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>809625</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9220" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9219" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9219" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9223" r:id="rId10" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9223" r:id="rId10" name="_ActiveXWrapper10"/>
+        <control shapeId="9222" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12143,8 +12142,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="10242" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10242" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -12163,32 +12187,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="10241" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12335,52 +12334,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82949" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="82945" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82949" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="82945" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82948" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="82946" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82948" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="82946" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12410,52 +12409,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82946" r:id="rId9" name="_ActiveXWrapper2">
+        <control shapeId="82948" r:id="rId9" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82946" r:id="rId9" name="_ActiveXWrapper2"/>
+        <control shapeId="82948" r:id="rId9" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="82945" r:id="rId11" name="_ActiveXWrapper1">
+        <control shapeId="82949" r:id="rId11" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="82945" r:id="rId11" name="_ActiveXWrapper1"/>
+        <control shapeId="82949" r:id="rId11" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12606,8 +12605,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="84993" r:id="rId4" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="85004" r:id="rId4" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85004" r:id="rId4" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85003" r:id="rId6" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1524000</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85003" r:id="rId6" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85002" r:id="rId8" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85002" r:id="rId8" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="85001" r:id="rId9" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="85001" r:id="rId9" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84999" r:id="rId10" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84999" r:id="rId10" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84998" r:id="rId11" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84998" r:id="rId11" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84997" r:id="rId12" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84997" r:id="rId12" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84996" r:id="rId13" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84996" r:id="rId13" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84995" r:id="rId14" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1533525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="84995" r:id="rId14" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="84993" r:id="rId16" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -12626,232 +12850,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="84993" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84995" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1533525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84995" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84996" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84996" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84997" r:id="rId9" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84997" r:id="rId9" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84998" r:id="rId10" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84998" r:id="rId10" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="84999" r:id="rId11" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="84999" r:id="rId11" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85001" r:id="rId12" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85001" r:id="rId12" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85002" r:id="rId13" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1514475</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85002" r:id="rId13" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85003" r:id="rId14" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1524000</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85003" r:id="rId14" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="85004" r:id="rId15" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="85004" r:id="rId15" name="_ActiveXWrapper10"/>
+        <control shapeId="84993" r:id="rId16" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12863,7 +12862,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -12905,13 +12904,13 @@
       <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="96">
+      <c r="B2" s="95">
         <v>0</v>
       </c>
-      <c r="C2" s="97">
+      <c r="C2" s="96">
         <v>28.013999999999999</v>
       </c>
       <c r="D2" s="32"/>
@@ -12935,13 +12934,13 @@
       <c r="P2" s="34"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="96">
+      <c r="B3" s="95">
         <v>0</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="96">
         <v>44.01</v>
       </c>
       <c r="D3" s="32"/>
@@ -12957,13 +12956,13 @@
       <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="96">
+      <c r="B4" s="95">
         <v>0</v>
       </c>
-      <c r="C4" s="97">
+      <c r="C4" s="96">
         <v>34.08</v>
       </c>
       <c r="D4" s="32"/>
@@ -12981,13 +12980,13 @@
       <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="96">
+      <c r="B5" s="95">
         <v>0</v>
       </c>
-      <c r="C5" s="97">
+      <c r="C5" s="96">
         <v>16.042999999999999</v>
       </c>
       <c r="D5" s="32"/>
@@ -13003,13 +13002,13 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="95">
         <v>0</v>
       </c>
-      <c r="C6" s="97">
+      <c r="C6" s="96">
         <v>30.07</v>
       </c>
       <c r="D6" s="32"/>
@@ -13025,13 +13024,13 @@
       <c r="P6" s="36"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="95">
         <v>0</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="96">
         <v>44.097000000000001</v>
       </c>
       <c r="D7" s="32"/>
@@ -13046,13 +13045,13 @@
       <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="96">
+      <c r="B8" s="95">
         <v>0</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="96">
         <v>58.124000000000002</v>
       </c>
       <c r="D8" s="32"/>
@@ -13066,13 +13065,13 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="96">
+      <c r="B9" s="95">
         <v>0</v>
       </c>
-      <c r="C9" s="97">
+      <c r="C9" s="96">
         <v>58.124000000000002</v>
       </c>
       <c r="D9" s="32"/>
@@ -13088,13 +13087,13 @@
       <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="B10" s="96">
+      <c r="B10" s="95">
         <v>0</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="97">
         <v>72.150999999999996</v>
       </c>
       <c r="D10" s="32"/>
@@ -13108,13 +13107,13 @@
       <c r="P10" s="36"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="96">
+      <c r="B11" s="95">
         <v>0</v>
       </c>
-      <c r="C11" s="97">
+      <c r="C11" s="96">
         <v>72.150999999999996</v>
       </c>
       <c r="D11" s="32"/>
@@ -13134,13 +13133,13 @@
       <c r="P11" s="36"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="96">
+      <c r="B12" s="95">
         <v>0</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="96">
         <v>72.150999999999996</v>
       </c>
       <c r="D12" s="32"/>
@@ -13160,13 +13159,13 @@
       <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="B13" s="96">
+      <c r="B13" s="95">
         <v>0</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="97">
         <v>70.135000000000005</v>
       </c>
       <c r="D13" s="32"/>
@@ -13176,13 +13175,13 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="95">
         <v>0</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="97">
         <v>86.177999999999997</v>
       </c>
       <c r="D14" s="32"/>
@@ -13192,13 +13191,13 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="96">
+      <c r="B15" s="95">
         <v>0</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="97">
         <v>86.177999999999997</v>
       </c>
       <c r="D15" s="32"/>
@@ -13206,25 +13205,25 @@
       <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="95" t="s">
         <v>338</v>
       </c>
-      <c r="B16" s="96">
+      <c r="B16" s="95">
         <v>0</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="97">
         <v>86.177999999999997</v>
       </c>
       <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="95" t="s">
         <v>339</v>
       </c>
-      <c r="B17" s="96">
+      <c r="B17" s="95">
         <v>0</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="97">
         <v>86.177999999999997</v>
       </c>
       <c r="D17" s="32"/>
@@ -13236,133 +13235,133 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="96">
+      <c r="B18" s="95">
         <v>0</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="96">
         <v>86.177999999999997</v>
       </c>
       <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="96">
+      <c r="B19" s="95">
         <v>0</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C19" s="96">
         <v>84.161000000000001</v>
       </c>
       <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="96">
+      <c r="B20" s="95">
         <v>0</v>
       </c>
-      <c r="C20" s="97">
+      <c r="C20" s="96">
         <v>78.114000000000004</v>
       </c>
       <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="95">
         <v>0</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C21" s="96">
         <v>100.205</v>
       </c>
       <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="96">
+      <c r="B22" s="95">
         <v>0</v>
       </c>
-      <c r="C22" s="97">
+      <c r="C22" s="96">
         <v>92.141000000000005</v>
       </c>
       <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="99" t="s">
         <v>340</v>
       </c>
-      <c r="B23" s="96">
+      <c r="B23" s="95">
         <v>0</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="97">
         <v>98.188999999999993</v>
       </c>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="96">
+      <c r="B24" s="95">
         <v>0</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C24" s="96">
         <v>114.232</v>
       </c>
       <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="96">
+      <c r="B25" s="95">
         <v>0</v>
       </c>
-      <c r="C25" s="99">
+      <c r="C25" s="98">
         <v>106.17</v>
       </c>
       <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="99" t="s">
         <v>341</v>
       </c>
-      <c r="B26" s="96">
+      <c r="B26" s="95">
         <v>0</v>
       </c>
-      <c r="C26" s="98">
+      <c r="C26" s="97">
         <v>112.21599999999999</v>
       </c>
       <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="96">
+      <c r="B27" s="95">
         <v>0</v>
       </c>
-      <c r="C27" s="97">
+      <c r="C27" s="96">
         <v>128.25800000000001</v>
       </c>
       <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="96">
+      <c r="B28" s="95">
         <v>0</v>
       </c>
-      <c r="C28" s="97">
+      <c r="C28" s="96">
         <v>142.285</v>
       </c>
       <c r="D28" s="32"/>
@@ -14581,68 +14580,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper27">
+        <control shapeId="1051" r:id="rId4" name="_ActiveXWrapper23">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper27"/>
+        <control shapeId="1051" r:id="rId4" name="_ActiveXWrapper23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId6" name="_ActiveXWrapper12">
+        <control shapeId="1050" r:id="rId6" name="_ActiveXWrapper22">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId6" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId8" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -14651,23 +14625,173 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId8" name="_ActiveXWrapper11"/>
+        <control shapeId="1050" r:id="rId6" name="_ActiveXWrapper22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId10" name="_ActiveXWrapper10">
+        <control shapeId="1049" r:id="rId8" name="_ActiveXWrapper21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId8" name="_ActiveXWrapper21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId10" name="_ActiveXWrapper20">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId10" name="_ActiveXWrapper20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId12" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId12" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId14" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId14" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId16" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId16" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId18" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId18" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId20" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
@@ -14676,99 +14800,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId10" name="_ActiveXWrapper10"/>
+        <control shapeId="1041" r:id="rId20" name="_ActiveXWrapper15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId16" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId16" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
@@ -14776,82 +14825,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper13"/>
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+        <control shapeId="1026" r:id="rId24" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>762000</xdr:colOff>
-                <xdr:row>118</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>119</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>118</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>119</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>118</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>119</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4"/>
+        <control shapeId="1026" r:id="rId24" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14881,19 +14880,94 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper1">
+        <control shapeId="1029" r:id="rId28" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>118</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId28" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId30" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>118</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId30" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId32" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>762000</xdr:colOff>
+                <xdr:row>118</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId32" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId34" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
@@ -14901,48 +14975,98 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper1"/>
+        <control shapeId="1032" r:id="rId34" name="_ActiveXWrapper13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1033" r:id="rId36" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper14"/>
+        <control shapeId="1033" r:id="rId36" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
+        <control shapeId="1034" r:id="rId38" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId38" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId40" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId40" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId42" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
@@ -14951,173 +15075,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15"/>
+        <control shapeId="1036" r:id="rId42" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId33" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId34">
+        <control shapeId="1037" r:id="rId44" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId33" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId35" name="_ActiveXWrapper17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId35" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId37" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId38">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId37" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId39" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId39" name="_ActiveXWrapper19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId41" name="_ActiveXWrapper20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId42">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId41" name="_ActiveXWrapper20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId43" name="_ActiveXWrapper21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId44">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId43" name="_ActiveXWrapper21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId45" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -15126,32 +15100,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId45" name="_ActiveXWrapper22"/>
+        <control shapeId="1037" r:id="rId44" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId47" name="_ActiveXWrapper23">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
+        <control shapeId="1038" r:id="rId46" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId47" name="_ActiveXWrapper23"/>
+        <control shapeId="1038" r:id="rId46" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId47" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId47" name="_ActiveXWrapper27"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15658,8 +15657,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="92166" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="92163" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92163" r:id="rId4" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92162" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92162" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92161" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92161" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92164" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92164" r:id="rId10" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92165" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="92165" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="92166" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -15678,132 +15802,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="92166" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92165" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92165" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92164" r:id="rId8" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92164" r:id="rId8" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92161" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92161" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92162" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92162" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="92163" r:id="rId14" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="92163" r:id="rId14" name="_ActiveXWrapper3"/>
+        <control shapeId="92166" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16108,8 +16107,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="96262" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="96261" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96261" r:id="rId4" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96260" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96260" r:id="rId6" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96259" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96259" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96258" r:id="rId9" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96258" r:id="rId9" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96257" r:id="rId11" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="96257" r:id="rId11" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="96262" r:id="rId13" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -16128,132 +16252,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="96262" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96257" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96257" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96258" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96258" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96259" r:id="rId10" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96259" r:id="rId10" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96260" r:id="rId12" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96260" r:id="rId12" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="96261" r:id="rId14" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="96261" r:id="rId14" name="_ActiveXWrapper5"/>
+        <control shapeId="96262" r:id="rId13" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16342,8 +16341,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="99329" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="99333" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99333" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99332" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99332" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99330" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="99330" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="99329" r:id="rId9" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -16362,82 +16436,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="99329" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99330" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99330" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99332" r:id="rId7" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99332" r:id="rId7" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="99333" r:id="rId8" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="99333" r:id="rId8" name="_ActiveXWrapper4"/>
+        <control shapeId="99329" r:id="rId9" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16482,8 +16481,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="126978" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="126978" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="126977" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -16502,32 +16526,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="126978" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="126977" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17924,27 +17923,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="18435" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="18437" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="18435" r:id="rId4" name="_ActiveXWrapper2"/>
+        <control shapeId="18437" r:id="rId4" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -17974,27 +17973,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="18437" r:id="rId8" name="_ActiveXWrapper3">
+        <control shapeId="18435" r:id="rId8" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="18437" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="18435" r:id="rId8" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18055,27 +18054,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="25602" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="25603" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1400175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>1390650</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="25602" r:id="rId4" name="_ActiveXWrapper2"/>
+        <control shapeId="25603" r:id="rId4" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18105,27 +18104,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="25603" r:id="rId8" name="_ActiveXWrapper3">
+        <control shapeId="25602" r:id="rId8" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1390650</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>1400175</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="25603" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="25602" r:id="rId8" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18190,8 +18189,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="53251" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="53252" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53252" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53250" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1400175</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53250" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53249" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="53249" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="53251" r:id="rId10" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18210,82 +18284,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="53251" r:id="rId4" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53249" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53249" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53250" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1400175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53250" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="53252" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="53252" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="53251" r:id="rId10" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/NeqSimExcel/NeqSimExcel.xlsx
+++ b/NeqSimExcel/NeqSimExcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mllu\Documents\Programming\neqsimCapeOpenNew\NeqSimExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\GITtest5\NeqSimExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17364" windowHeight="5148"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Startup" sheetId="18" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="waxT" sheetId="11" r:id="rId9"/>
     <sheet name="freezeT" sheetId="12" r:id="rId10"/>
     <sheet name="phase envelope" sheetId="5" r:id="rId11"/>
-    <sheet name="Water, ice and hydrate T" sheetId="33" r:id="rId12"/>
+    <sheet name="Water dew point" sheetId="33" r:id="rId12"/>
     <sheet name="HC dew point" sheetId="2" r:id="rId13"/>
     <sheet name="Scale" sheetId="15" r:id="rId14"/>
     <sheet name="Property generator" sheetId="14" r:id="rId15"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="347">
   <si>
     <t>Component</t>
   </si>
@@ -1058,9 +1058,6 @@
     <t>2. Select operation</t>
   </si>
   <si>
-    <t>Select Cape Open fluid package export ID</t>
-  </si>
-  <si>
     <t>Cape Open package</t>
   </si>
   <si>
@@ -1145,9 +1142,6 @@
     <t>Import fluid</t>
   </si>
   <si>
-    <t>NeqSim Excel (version 3.0)</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1190,9 +1184,6 @@
     <t>local fluid name</t>
   </si>
   <si>
-    <t>Fluid description:</t>
-  </si>
-  <si>
     <t>2,2-dm-C3</t>
   </si>
   <si>
@@ -1226,7 +1217,19 @@
     <t>Aqueous dew point [C]</t>
   </si>
   <si>
-    <t>Water dew point, ice and hydrate temperature</t>
+    <t>Water dew point</t>
+  </si>
+  <si>
+    <t>Save to online database</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>fluid name</t>
+  </si>
+  <si>
+    <t>NeqSim Excel 2018.1</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1549,21 +1552,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1577,7 +1565,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1724,7 +1712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
@@ -1795,8 +1782,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="466"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1812,8 +1799,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3704"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3572"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1931,8 +1918,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1355"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="572"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1948,8 +1935,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3006"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1965,8 +1952,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2646"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="593"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2593"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1982,8 +1969,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2879"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2831"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1999,8 +1986,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2477"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2016,8 +2003,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2477"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2033,8 +2020,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2477"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2050,8 +2037,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2498"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2067,8 +2054,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2519"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="826"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2084,8 +2071,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3768"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2101,8 +2088,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2053"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="826"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2118,8 +2105,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1842"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2135,8 +2122,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2265"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="868"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2152,8 +2139,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="572"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2169,8 +2156,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2307"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2186,8 +2173,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4974"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="487"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4868"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2203,8 +2190,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4784"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="466"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2220,8 +2207,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4953"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2237,8 +2224,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4953"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="402"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4842"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2255,7 +2242,7 @@
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="1058"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2271,8 +2258,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4085"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="466"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4101"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2288,8 +2275,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2096"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="572"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2305,8 +2292,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2307"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2249"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2322,7 +2309,7 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4784"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2339,7 +2326,7 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2582"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2566"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2458,8 +2445,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4382"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="360"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="344"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2544,7 +2531,7 @@
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="2328"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="826"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2594,8 +2581,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1947"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="762"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1958"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2611,8 +2598,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3239"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2645,8 +2632,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3662"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2713,8 +2700,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1947"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="762"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1958"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2832,8 +2819,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="445"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4683"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="450"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2901,7 +2888,7 @@
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="1905"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2917,8 +2904,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="614"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2117"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2934,8 +2921,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3725"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3625"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2952,7 +2939,7 @@
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="2540"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="550"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3002,8 +2989,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3239"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="445"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1667"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="318"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3019,8 +3006,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4170"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="445"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4180"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3036,7 +3023,7 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3239"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="423"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -3053,8 +3040,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1609"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="550"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3070,8 +3057,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3006"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3087,8 +3074,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3069"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3206,8 +3193,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4424"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="402"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="397"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3393,8 +3380,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3683"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="476"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -3576,15 +3563,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>365760</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1684020</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:colOff>1685925</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3638,15 +3625,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>365760</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1943100</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3700,15 +3687,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>365760</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1836420</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:colOff>1838325</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3762,15 +3749,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>365760</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1722120</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:colOff>1724025</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3824,15 +3811,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>373380</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>2057400</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3886,14 +3873,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>365760</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1866900</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3948,14 +3935,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>373380</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1965960</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:colOff>1962150</xdr:colOff>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4010,15 +3997,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1371600</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4072,14 +4059,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1333500</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4139,15 +4126,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4203,13 +4190,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4270,13 +4257,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1173480</xdr:colOff>
+          <xdr:colOff>1171575</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4330,15 +4317,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4392,15 +4379,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>518160</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4454,15 +4441,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>518160</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4521,15 +4508,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>762000</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:colOff>733425</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4539,7 +4526,7 @@
                   <a14:compatExt spid="_x0000_s133121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EFE645-052E-4703-B314-B987B43B5C7D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000001080200}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4588,15 +4575,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>144780</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>236220</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4606,7 +4593,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000001100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4655,15 +4642,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>137160</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4673,7 +4660,7 @@
                   <a14:compatExt spid="_x0000_s48129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001BC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001BC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4719,11 +4706,11 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>962025</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4735,7 +4722,7 @@
                   <a14:compatExt spid="_x0000_s48130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002BC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002BC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4781,13 +4768,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>982980</xdr:colOff>
+          <xdr:colOff>981075</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4797,7 +4784,7 @@
                   <a14:compatExt spid="_x0000_s48131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003BC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003BC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4847,7 +4834,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>982980</xdr:colOff>
+          <xdr:colOff>981075</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4859,7 +4846,7 @@
                   <a14:compatExt spid="_x0000_s48132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004BC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004BC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4903,15 +4890,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1036320</xdr:colOff>
+          <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4921,7 +4908,7 @@
                   <a14:compatExt spid="_x0000_s48133"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005BC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005BC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4976,7 +4963,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4988,7 +4975,7 @@
                   <a14:compatExt spid="_x0000_s44033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001AC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001AC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5032,13 +5019,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5050,7 +5037,7 @@
                   <a14:compatExt spid="_x0000_s44035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003AC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003AC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5094,15 +5081,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>160020</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5112,7 +5099,7 @@
                   <a14:compatExt spid="_x0000_s44036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004AC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004AC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5161,15 +5148,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5179,7 +5166,7 @@
                   <a14:compatExt spid="_x0000_s9219"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5223,15 +5210,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>807720</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:colOff>790575</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5241,7 +5228,7 @@
                   <a14:compatExt spid="_x0000_s9220"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5285,15 +5272,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>716280</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5303,7 +5290,7 @@
                   <a14:compatExt spid="_x0000_s9222"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5347,15 +5334,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>601980</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>906780</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5365,7 +5352,7 @@
                   <a14:compatExt spid="_x0000_s9223"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000007240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5420,9 +5407,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1021080</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5432,7 +5419,7 @@
                   <a14:compatExt spid="_x0000_s10241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000001280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000001280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5478,11 +5465,11 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -5494,7 +5481,7 @@
                   <a14:compatExt spid="_x0000_s10242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5543,7 +5530,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
@@ -5551,7 +5538,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5561,7 +5548,7 @@
                   <a14:compatExt spid="_x0000_s82945"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000001440100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000001440100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5605,15 +5592,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1089660</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:colOff>1085850</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5623,7 +5610,7 @@
                   <a14:compatExt spid="_x0000_s82946"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002440100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002440100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5666,16 +5653,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>1600200</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:colOff>1009650</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5685,7 +5672,7 @@
                   <a14:compatExt spid="_x0000_s82947"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003440100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003440100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5729,15 +5716,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>350520</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5747,7 +5734,7 @@
                   <a14:compatExt spid="_x0000_s82948"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004440100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004440100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5791,13 +5778,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>365760</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>657225</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5809,7 +5796,7 @@
                   <a14:compatExt spid="_x0000_s82949"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005440100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000005440100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5866,7 +5853,7 @@
           <xdr:col>21</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5876,7 +5863,7 @@
                   <a14:compatExt spid="_x0000_s65537"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000001000100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000001000100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5925,13 +5912,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -5987,7 +5974,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>137160</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5995,7 +5982,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>119</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6049,15 +6036,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>906780</xdr:colOff>
+          <xdr:colOff>904875</xdr:colOff>
           <xdr:row>118</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>119</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6111,15 +6098,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>754380</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>118</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>601980</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>119</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6181,7 +6168,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>119</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6235,13 +6222,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>175260</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>441960</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -6297,13 +6284,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>160020</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>426720</xdr:colOff>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -6359,15 +6346,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>137160</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6423,13 +6410,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>563880</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6489,9 +6476,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>365760</xdr:colOff>
+          <xdr:colOff>361950</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6547,13 +6534,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6613,7 +6600,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -6675,9 +6662,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>441960</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6731,13 +6718,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>541020</xdr:colOff>
+          <xdr:colOff>542925</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -6793,15 +6780,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>708660</xdr:colOff>
+          <xdr:colOff>704850</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6857,11 +6844,11 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>601980</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -6919,13 +6906,13 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6979,15 +6966,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>601980</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7043,13 +7030,13 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7103,15 +7090,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>632460</xdr:colOff>
+          <xdr:colOff>628650</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7165,15 +7152,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>137160</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7227,15 +7214,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>708660</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:colOff>704850</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7289,15 +7276,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>541020</xdr:colOff>
+          <xdr:colOff>542925</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7356,15 +7343,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1524000</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7374,7 +7361,7 @@
                   <a14:compatExt spid="_x0000_s84993"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000014C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-0000014C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7418,15 +7405,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1531620</xdr:colOff>
+          <xdr:colOff>1533525</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7436,7 +7423,7 @@
                   <a14:compatExt spid="_x0000_s84995"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000034C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-0000034C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7486,7 +7473,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1516380</xdr:colOff>
+          <xdr:colOff>1514475</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7498,7 +7485,7 @@
                   <a14:compatExt spid="_x0000_s84996"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000044C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-0000044C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7548,7 +7535,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1516380</xdr:colOff>
+          <xdr:colOff>1514475</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7560,7 +7547,7 @@
                   <a14:compatExt spid="_x0000_s84997"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000054C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-0000054C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7610,7 +7597,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1516380</xdr:colOff>
+          <xdr:colOff>1514475</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7622,7 +7609,7 @@
                   <a14:compatExt spid="_x0000_s84998"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000064C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-0000064C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7672,7 +7659,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1516380</xdr:colOff>
+          <xdr:colOff>1514475</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7684,7 +7671,7 @@
                   <a14:compatExt spid="_x0000_s84999"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000074C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-0000074C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7730,13 +7717,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1516380</xdr:colOff>
+          <xdr:colOff>1514475</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7746,7 +7733,7 @@
                   <a14:compatExt spid="_x0000_s85001"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000094C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-0000094C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7792,13 +7779,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1516380</xdr:colOff>
+          <xdr:colOff>1514475</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7808,7 +7795,7 @@
                   <a14:compatExt spid="_x0000_s85002"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000A4C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00000A4C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7852,15 +7839,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1524000</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7870,7 +7857,7 @@
                   <a14:compatExt spid="_x0000_s85003"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000B4C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00000B4C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7914,15 +7901,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>990600</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7932,7 +7919,7 @@
                   <a14:compatExt spid="_x0000_s85004"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000C4C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00000C4C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7983,11 +7970,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>792480</xdr:colOff>
+          <xdr:colOff>790575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7999,7 +7986,7 @@
                   <a14:compatExt spid="_x0000_s88065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000001580100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000001580100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8048,15 +8035,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>822960</xdr:colOff>
+          <xdr:colOff>819150</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8066,7 +8053,7 @@
                   <a14:compatExt spid="_x0000_s89089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-0000015C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-0000015C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8115,15 +8102,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>617220</xdr:colOff>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8133,7 +8120,7 @@
                   <a14:compatExt spid="_x0000_s92161"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000001680100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000001680100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8177,13 +8164,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8195,7 +8182,7 @@
                   <a14:compatExt spid="_x0000_s92162"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002680100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002680100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8247,7 +8234,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8257,7 +8244,7 @@
                   <a14:compatExt spid="_x0000_s92163"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000003680100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000003680100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8303,13 +8290,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8319,7 +8306,7 @@
                   <a14:compatExt spid="_x0000_s92164"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000004680100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000004680100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8371,7 +8358,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>876300</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8381,7 +8368,7 @@
                   <a14:compatExt spid="_x0000_s92165"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000005680100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000005680100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8438,7 +8425,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8477,7 +8464,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8487,7 +8474,7 @@
                   <a14:compatExt spid="_x0000_s92166"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000006680100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000006680100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8536,15 +8523,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>617220</xdr:colOff>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8554,7 +8541,7 @@
                   <a14:compatExt spid="_x0000_s96257"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000001780100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000001780100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8598,13 +8585,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8616,7 +8603,7 @@
                   <a14:compatExt spid="_x0000_s96258"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002780100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002780100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8668,7 +8655,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8678,7 +8665,7 @@
                   <a14:compatExt spid="_x0000_s96259"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000003780100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000003780100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8724,13 +8711,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8740,7 +8727,7 @@
                   <a14:compatExt spid="_x0000_s96260"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000004780100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000004780100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8790,7 +8777,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8802,7 +8789,7 @@
                   <a14:compatExt spid="_x0000_s96261"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000005780100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000005780100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8848,13 +8835,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>716280</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8864,7 +8851,7 @@
                   <a14:compatExt spid="_x0000_s96262"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000006780100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000006780100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8921,7 +8908,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8962,15 +8949,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8980,7 +8967,7 @@
                   <a14:compatExt spid="_x0000_s99329"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000001840100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000001840100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9024,13 +9011,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -9042,7 +9029,7 @@
                   <a14:compatExt spid="_x0000_s99330"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002840100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000002840100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9088,13 +9075,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9104,7 +9091,7 @@
                   <a14:compatExt spid="_x0000_s99332"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000004840100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000004840100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9154,9 +9141,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>601980</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9166,7 +9153,7 @@
                   <a14:compatExt spid="_x0000_s99333"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000005840100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000005840100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9215,15 +9202,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9233,7 +9220,7 @@
                   <a14:compatExt spid="_x0000_s126977"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000001F00100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000001F00100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9277,15 +9264,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9295,7 +9282,7 @@
                   <a14:compatExt spid="_x0000_s126978"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000002F00100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000002F00100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9346,13 +9333,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1097280</xdr:colOff>
+          <xdr:colOff>1095375</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9362,7 +9349,7 @@
                   <a14:compatExt spid="_x0000_s130049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000001FC0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000001FC0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9411,15 +9398,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9478,13 +9465,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -9542,13 +9529,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9602,15 +9589,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9669,15 +9656,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
+          <xdr:colOff>885825</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9731,15 +9718,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1402080</xdr:colOff>
+          <xdr:colOff>1400175</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9795,11 +9782,11 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1394460</xdr:colOff>
+          <xdr:colOff>1390650</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -9860,13 +9847,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>899160</xdr:colOff>
+          <xdr:colOff>895350</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -9922,15 +9909,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1402080</xdr:colOff>
+          <xdr:colOff>1400175</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9984,13 +9971,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>899160</xdr:colOff>
+          <xdr:colOff>895350</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -10046,9 +10033,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -10113,13 +10100,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>441960</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -10182,13 +10169,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>464820</xdr:colOff>
+          <xdr:colOff>466725</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10255,9 +10242,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>137160</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -10637,234 +10624,237 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="62" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="62"/>
+    <col min="1" max="1" width="43.7109375" style="62" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="62" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="63" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="63"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="63" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="63"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-    </row>
-    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="65"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+    </row>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B11" s="63" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B12" s="63" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="67" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+    <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="67" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+    <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="67" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-    </row>
-    <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+    <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="67" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="67"/>
+    </row>
+    <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B19" s="63" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+    <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+    <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="67" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-    </row>
-    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="67" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="67"/>
     </row>
-    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="67"/>
+    </row>
+    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="67" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+    <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+    <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="67" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-    </row>
-    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-    </row>
-    <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="67"/>
+    </row>
+    <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="69"/>
+    </row>
+    <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+    <row r="32" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="67" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="67"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="70"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="67" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="67" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="70"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="67" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="71"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="73" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
-        <v>182</v>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="73" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="A5" location="Fluid!A1" display="1. Create a fluid"/>
-    <hyperlink ref="A10" location="TPflash!A1" display="TP flash"/>
-    <hyperlink ref="A26" location="'Gas hydrate'!A1" display="Gas Hydrate"/>
-    <hyperlink ref="A30" location="PVTcalc!A1" display="PVTcalculation"/>
-    <hyperlink ref="A11" location="'phase envelope'!A1" display="Phase envelope"/>
-    <hyperlink ref="A45" r:id="rId1"/>
-    <hyperlink ref="A34" location="'Cape Open'!A1" display="Cape Open package"/>
-    <hyperlink ref="A12" location="'Property generator'!A1" display="Property generation"/>
-    <hyperlink ref="A27" location="Scale!A1" display="Mineral scale"/>
-    <hyperlink ref="A35" location="OLGA!A1" display="OLGA table generation"/>
-    <hyperlink ref="A13" location="'HC dew point'!A1" display="Hydrocarbon dew point"/>
-    <hyperlink ref="A31" location="PVTfit!A1" display="PVT fitting"/>
-    <hyperlink ref="A39" location="RFOpipedehyd!A1" display="Pipe dehydration"/>
-    <hyperlink ref="A25" location="waxT!A1" display="Wax temperature"/>
-    <hyperlink ref="A14" location="freezeT!A1" display="Freezing point"/>
-    <hyperlink ref="A42" location="ModelSettings!A1" display="Manual model settings"/>
-    <hyperlink ref="A20" location="PVTfit!A1" display="Plus fluid regression"/>
-    <hyperlink ref="A19" location="Mix!A1" display="Mix"/>
-    <hyperlink ref="A18" location="Recombine!A1" display="Recombine"/>
-    <hyperlink ref="B10" location="Valve!A1" display="Valve"/>
-    <hyperlink ref="B11" location="Compressor!A1" display="Compressor"/>
-    <hyperlink ref="B18" location="SepProcess!A1" display="Oil/gas separation process"/>
-    <hyperlink ref="B19" location="DewPointControl!A1" display="G2P@ process"/>
-    <hyperlink ref="A43" location="BinaryCalc!A1" display="Binary property calc"/>
-    <hyperlink ref="A21" location="AddPseudo!A1" display="Add psedocomponents"/>
-    <hyperlink ref="A36" location="ReadFluid!A1" display="Import fluid"/>
-    <hyperlink ref="A22" location="wellstream!A1" display="GOR/k-value to well stream"/>
-    <hyperlink ref="A15" location="'Water, ice and hydrate T'!A1" display="Water dew point, ice and hydrate temperature"/>
+    <hyperlink ref="A6" location="Fluid!A1" display="1. Create a fluid"/>
+    <hyperlink ref="A11" location="TPflash!A1" display="TP flash"/>
+    <hyperlink ref="A27" location="'Gas hydrate'!A1" display="Gas Hydrate"/>
+    <hyperlink ref="A31" location="PVTcalc!A1" display="PVTcalculation"/>
+    <hyperlink ref="A12" location="'phase envelope'!A1" display="Phase envelope"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A35" location="'Cape Open'!A1" display="Cape Open package"/>
+    <hyperlink ref="A13" location="'Property generator'!A1" display="Property generation"/>
+    <hyperlink ref="A28" location="Scale!A1" display="Mineral scale"/>
+    <hyperlink ref="A36" location="OLGA!A1" display="OLGA table generation"/>
+    <hyperlink ref="A14" location="'HC dew point'!A1" display="Hydrocarbon dew point"/>
+    <hyperlink ref="A32" location="PVTfit!A1" display="PVT fitting"/>
+    <hyperlink ref="A40" location="RFOpipedehyd!A1" display="Pipe dehydration"/>
+    <hyperlink ref="A26" location="waxT!A1" display="Wax temperature"/>
+    <hyperlink ref="A15" location="freezeT!A1" display="Freezing point"/>
+    <hyperlink ref="A43" location="ModelSettings!A1" display="Manual model settings"/>
+    <hyperlink ref="A21" location="PVTfit!A1" display="Plus fluid regression"/>
+    <hyperlink ref="A20" location="Mix!A1" display="Mix"/>
+    <hyperlink ref="A19" location="Recombine!A1" display="Recombine"/>
+    <hyperlink ref="B11" location="Valve!A1" display="Valve"/>
+    <hyperlink ref="B12" location="Compressor!A1" display="Compressor"/>
+    <hyperlink ref="B19" location="SepProcess!A1" display="Oil/gas separation process"/>
+    <hyperlink ref="B20" location="DewPointControl!A1" display="G2P@ process"/>
+    <hyperlink ref="A44" location="BinaryCalc!A1" display="Binary property calc"/>
+    <hyperlink ref="A22" location="AddPseudo!A1" display="Add psedocomponents"/>
+    <hyperlink ref="A37" location="ReadFluid!A1" display="Import fluid"/>
+    <hyperlink ref="A23" location="wellstream!A1" display="GOR/k-value to well stream"/>
+    <hyperlink ref="A16" location="'Water, ice and hydrate T'!A1" display="Water dew point"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId2"/>
@@ -10878,14 +10868,14 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>1333500</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
@@ -10903,15 +10893,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1722120</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -10928,15 +10918,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1836420</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:colOff>1838325</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -10953,15 +10943,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>1943100</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -10978,15 +10968,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1684020</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:colOff>1685925</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11003,15 +10993,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>2057400</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11028,14 +11018,14 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>1866900</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -11053,14 +11043,14 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1965960</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:colOff>1962150</xdr:colOff>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
@@ -11078,15 +11068,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11105,17 +11095,15 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11123,7 +11111,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11131,17 +11119,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15</v>
       </c>
@@ -11160,15 +11148,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11187,13 +11175,13 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11216,69 +11204,69 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>303</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="76"/>
       <c r="B6" s="77"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="78"/>
       <c r="B7" s="79"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="78"/>
       <c r="B9" s="79"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="79"/>
     </row>
-    <row r="11" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="80"/>
       <c r="B11" s="81"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -11299,13 +11287,13 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1173480</xdr:colOff>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11322,15 +11310,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>30480</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11347,15 +11335,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>518160</xdr:colOff>
+                <xdr:colOff>514350</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11372,15 +11360,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>518160</xdr:colOff>
+                <xdr:colOff>514350</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11400,48 +11388,48 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15</v>
       </c>
@@ -11460,15 +11448,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>60960</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>762000</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
+                <xdr:colOff>733425</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11491,13 +11479,13 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11505,22 +11493,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15</v>
       </c>
@@ -11539,15 +11527,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
+                <xdr:colOff>142875</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>236220</xdr:colOff>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11568,17 +11556,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -11586,7 +11574,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -11598,7 +11586,7 @@
       </c>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -11608,7 +11596,7 @@
       <c r="E3" s="43"/>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -11618,7 +11606,7 @@
       <c r="E4" s="43"/>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -11628,7 +11616,7 @@
       <c r="E5" s="45"/>
       <c r="F5" s="46"/>
     </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -11638,7 +11626,7 @@
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -11651,7 +11639,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -11668,7 +11656,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -11685,7 +11673,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>160</v>
       </c>
@@ -11693,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -11711,7 +11699,7 @@
       <c r="K11" s="52"/>
       <c r="L11" s="42"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12" s="43" t="s">
         <v>172</v>
       </c>
@@ -11732,7 +11720,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -11758,7 +11746,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14" s="45" t="s">
         <v>34</v>
       </c>
@@ -11772,7 +11760,7 @@
       <c r="K14" s="47"/>
       <c r="L14" s="44"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -11784,7 +11772,7 @@
       <c r="K15" s="60"/>
       <c r="L15" s="61"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>66</v>
       </c>
@@ -11792,7 +11780,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
         <v>176</v>
       </c>
@@ -11811,15 +11799,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>13</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>1036320</xdr:colOff>
+                <xdr:colOff>1038225</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11836,15 +11824,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>137160</xdr:colOff>
+                <xdr:colOff>133350</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11863,11 +11851,11 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>960120</xdr:colOff>
+                <xdr:colOff>962025</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -11888,13 +11876,13 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>982980</xdr:colOff>
+                <xdr:colOff>981075</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11917,7 +11905,7 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>982980</xdr:colOff>
+                <xdr:colOff>981075</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -11942,12 +11930,12 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>22</v>
       </c>
@@ -11955,7 +11943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -11969,7 +11957,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -11980,7 +11968,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -11994,7 +11982,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -12013,15 +12001,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>198120</xdr:colOff>
+                <xdr:colOff>200025</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>160020</xdr:colOff>
+                <xdr:colOff>161925</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12038,13 +12026,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12069,7 +12057,7 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12090,52 +12078,55 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="94" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="94"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="41"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -12154,15 +12145,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>30480</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>716280</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12179,15 +12170,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>99060</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>807720</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>790575</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12204,15 +12195,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12229,15 +12220,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>601980</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>906780</xdr:colOff>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12258,19 +12249,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -12278,7 +12269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -12289,7 +12280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -12300,7 +12291,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -12311,7 +12302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -12319,7 +12310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -12344,9 +12335,9 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1021080</xdr:colOff>
+                <xdr:colOff>1019175</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12365,11 +12356,11 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>220980</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -12391,22 +12382,22 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
@@ -12423,13 +12414,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>196</v>
       </c>
@@ -12437,7 +12428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -12445,7 +12436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -12459,7 +12450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -12473,7 +12464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -12487,17 +12478,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -12508,7 +12499,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -12530,13 +12521,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12555,15 +12546,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>350520</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12579,16 +12570,16 @@
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1600200</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>525780</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:colOff>1009650</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12605,15 +12596,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1089660</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12626,11 +12617,11 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="82945" r:id="rId12" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </from>
@@ -12638,7 +12629,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12659,7 +12650,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12682,7 +12673,7 @@
                 <xdr:col>21</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>51</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12702,30 +12693,30 @@
   <dimension ref="A1:P116"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" style="30" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="3.33203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="10"/>
-    <col min="9" max="9" width="10.109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="3.109375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="10" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="1" width="15.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="30" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="3.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="10"/>
+    <col min="9" max="9" width="10.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="10" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -12742,14 +12733,14 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="95">
+      <c r="B2" s="94">
         <v>0</v>
       </c>
-      <c r="C2" s="96">
+      <c r="C2" s="95">
         <v>28.013999999999999</v>
       </c>
       <c r="D2" s="32"/>
@@ -12772,14 +12763,14 @@
       </c>
       <c r="P2" s="34"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="95">
+      <c r="B3" s="94">
         <v>0</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="95">
         <v>44.01</v>
       </c>
       <c r="D3" s="32"/>
@@ -12794,14 +12785,14 @@
       <c r="O3" s="35"/>
       <c r="P3" s="36"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="95">
+      <c r="B4" s="94">
         <v>0</v>
       </c>
-      <c r="C4" s="96">
+      <c r="C4" s="95">
         <v>34.08</v>
       </c>
       <c r="D4" s="32"/>
@@ -12818,14 +12809,14 @@
       <c r="O4" s="35"/>
       <c r="P4" s="36"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="94">
         <v>0</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="95">
         <v>16.042999999999999</v>
       </c>
       <c r="D5" s="32"/>
@@ -12840,14 +12831,14 @@
       <c r="O5" s="35"/>
       <c r="P5" s="36"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="94">
         <v>0</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="95">
         <v>30.07</v>
       </c>
       <c r="D6" s="32"/>
@@ -12862,14 +12853,14 @@
       <c r="O6" s="35"/>
       <c r="P6" s="36"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="95">
+      <c r="B7" s="94">
         <v>0</v>
       </c>
-      <c r="C7" s="96">
+      <c r="C7" s="95">
         <v>44.097000000000001</v>
       </c>
       <c r="D7" s="32"/>
@@ -12883,14 +12874,14 @@
       <c r="O7" s="37"/>
       <c r="P7" s="38"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="94">
         <v>0</v>
       </c>
-      <c r="C8" s="96">
+      <c r="C8" s="95">
         <v>58.124000000000002</v>
       </c>
       <c r="D8" s="32"/>
@@ -12903,14 +12894,14 @@
       </c>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="94">
         <v>0</v>
       </c>
-      <c r="C9" s="96">
+      <c r="C9" s="95">
         <v>58.124000000000002</v>
       </c>
       <c r="D9" s="32"/>
@@ -12921,18 +12912,18 @@
       </c>
       <c r="L9" s="20"/>
       <c r="O9" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
-        <v>334</v>
-      </c>
-      <c r="B10" s="95">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="94">
         <v>0</v>
       </c>
-      <c r="C10" s="97">
+      <c r="C10" s="96">
         <v>72.150999999999996</v>
       </c>
       <c r="D10" s="32"/>
@@ -12945,14 +12936,14 @@
       <c r="O10" s="35"/>
       <c r="P10" s="36"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="95">
+      <c r="B11" s="94">
         <v>0</v>
       </c>
-      <c r="C11" s="96">
+      <c r="C11" s="95">
         <v>72.150999999999996</v>
       </c>
       <c r="D11" s="32"/>
@@ -12971,14 +12962,14 @@
       <c r="O11" s="35"/>
       <c r="P11" s="36"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="94">
         <v>0</v>
       </c>
-      <c r="C12" s="96">
+      <c r="C12" s="95">
         <v>72.150999999999996</v>
       </c>
       <c r="D12" s="32"/>
@@ -12997,14 +12988,14 @@
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
-        <v>335</v>
-      </c>
-      <c r="B13" s="95">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="94" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="94">
         <v>0</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C13" s="96">
         <v>70.135000000000005</v>
       </c>
       <c r="D13" s="32"/>
@@ -13013,14 +13004,14 @@
       <c r="K13" s="27"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="B14" s="95">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="94">
         <v>0</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="96">
         <v>86.177999999999997</v>
       </c>
       <c r="D14" s="32"/>
@@ -13029,40 +13020,40 @@
       <c r="K14" s="19"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="B15" s="95">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="94">
         <v>0</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="96">
         <v>86.177999999999997</v>
       </c>
       <c r="D15" s="32"/>
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
-        <v>338</v>
-      </c>
-      <c r="B16" s="95">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="94" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="94">
         <v>0</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="96">
         <v>86.177999999999997</v>
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="B17" s="95">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="94" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="94">
         <v>0</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="96">
         <v>86.177999999999997</v>
       </c>
       <c r="D17" s="32"/>
@@ -13073,139 +13064,139 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="95">
+      <c r="B18" s="94">
         <v>0</v>
       </c>
-      <c r="C18" s="96">
+      <c r="C18" s="95">
         <v>86.177999999999997</v>
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="95">
+      <c r="B19" s="94">
         <v>0</v>
       </c>
-      <c r="C19" s="96">
+      <c r="C19" s="95">
         <v>84.161000000000001</v>
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="95">
+      <c r="B20" s="94">
         <v>0</v>
       </c>
-      <c r="C20" s="96">
+      <c r="C20" s="95">
         <v>78.114000000000004</v>
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="95">
+      <c r="B21" s="94">
         <v>0</v>
       </c>
-      <c r="C21" s="96">
+      <c r="C21" s="95">
         <v>100.205</v>
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="95">
+      <c r="B22" s="94">
         <v>0</v>
       </c>
-      <c r="C22" s="96">
+      <c r="C22" s="95">
         <v>92.141000000000005</v>
       </c>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="99" t="s">
-        <v>340</v>
-      </c>
-      <c r="B23" s="95">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="B23" s="94">
         <v>0</v>
       </c>
-      <c r="C23" s="97">
+      <c r="C23" s="96">
         <v>98.188999999999993</v>
       